--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4715"/>
+  <dimension ref="A1:E4718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72290,6 +72290,57 @@
         <v>691824</v>
       </c>
     </row>
+    <row r="4716">
+      <c r="A4716" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B4716" t="n">
+        <v>729067</v>
+      </c>
+      <c r="C4716" t="n">
+        <v>691824</v>
+      </c>
+      <c r="D4716" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4716" t="n">
+        <v>691824</v>
+      </c>
+    </row>
+    <row r="4717">
+      <c r="A4717" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B4717" t="n">
+        <v>691824</v>
+      </c>
+      <c r="C4717" t="n">
+        <v>672537</v>
+      </c>
+      <c r="D4717" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4717" t="n">
+        <v>672537</v>
+      </c>
+    </row>
+    <row r="4718">
+      <c r="A4718" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B4718" t="n">
+        <v>672537</v>
+      </c>
+      <c r="C4718" t="n">
+        <v>667717</v>
+      </c>
+      <c r="D4718" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4718" t="n">
+        <v>667717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4718"/>
+  <dimension ref="A1:E4729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72341,6 +72341,193 @@
         <v>667717</v>
       </c>
     </row>
+    <row r="4719">
+      <c r="A4719" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B4719" t="n">
+        <v>672537</v>
+      </c>
+      <c r="C4719" t="n">
+        <v>667717</v>
+      </c>
+      <c r="D4719" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4719" t="n">
+        <v>667717</v>
+      </c>
+    </row>
+    <row r="4720">
+      <c r="A4720" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B4720" t="n">
+        <v>667717</v>
+      </c>
+      <c r="C4720" t="n">
+        <v>725026</v>
+      </c>
+      <c r="D4720" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4720" t="n">
+        <v>725026</v>
+      </c>
+    </row>
+    <row r="4721">
+      <c r="A4721" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B4721" t="n">
+        <v>725026</v>
+      </c>
+      <c r="C4721" t="n">
+        <v>897016</v>
+      </c>
+      <c r="D4721" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4721" t="n">
+        <v>897016</v>
+      </c>
+    </row>
+    <row r="4722">
+      <c r="A4722" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B4722" t="n">
+        <v>897016</v>
+      </c>
+      <c r="C4722" t="n">
+        <v>906002</v>
+      </c>
+      <c r="D4722" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4722" t="n">
+        <v>906002</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B4723" t="n">
+        <v>906002</v>
+      </c>
+      <c r="C4723" t="n">
+        <v>929932</v>
+      </c>
+      <c r="D4723" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4723" t="n">
+        <v>929932</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B4724" t="n">
+        <v>929932</v>
+      </c>
+      <c r="C4724" t="n">
+        <v>930542</v>
+      </c>
+      <c r="D4724" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4724" t="n">
+        <v>930542</v>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B4725" t="n">
+        <v>930542</v>
+      </c>
+      <c r="C4725" t="n">
+        <v>939464</v>
+      </c>
+      <c r="D4725" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4725" t="n">
+        <v>939464</v>
+      </c>
+    </row>
+    <row r="4726">
+      <c r="A4726" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B4726" t="n">
+        <v>939464</v>
+      </c>
+      <c r="C4726" t="n">
+        <v>955986</v>
+      </c>
+      <c r="D4726" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4726" t="n">
+        <v>955986</v>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B4727" t="n">
+        <v>955986</v>
+      </c>
+      <c r="C4727" t="n">
+        <v>955714</v>
+      </c>
+      <c r="D4727" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4727" t="n">
+        <v>955714</v>
+      </c>
+    </row>
+    <row r="4728">
+      <c r="A4728" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B4728" t="n">
+        <v>955714</v>
+      </c>
+      <c r="C4728" t="n">
+        <v>929379</v>
+      </c>
+      <c r="D4728" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4728" t="n">
+        <v>929379</v>
+      </c>
+    </row>
+    <row r="4729">
+      <c r="A4729" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B4729" t="n">
+        <v>929379</v>
+      </c>
+      <c r="C4729" t="n">
+        <v>907965</v>
+      </c>
+      <c r="D4729" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4729" t="n">
+        <v>907965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4729"/>
+  <dimension ref="A1:E4732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72528,6 +72528,57 @@
         <v>907965</v>
       </c>
     </row>
+    <row r="4730">
+      <c r="A4730" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B4730" t="n">
+        <v>929379</v>
+      </c>
+      <c r="C4730" t="n">
+        <v>907965</v>
+      </c>
+      <c r="D4730" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4730" t="n">
+        <v>907965</v>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B4731" t="n">
+        <v>907965</v>
+      </c>
+      <c r="C4731" t="n">
+        <v>909938</v>
+      </c>
+      <c r="D4731" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4731" t="n">
+        <v>909938</v>
+      </c>
+    </row>
+    <row r="4732">
+      <c r="A4732" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B4732" t="n">
+        <v>909938</v>
+      </c>
+      <c r="C4732" t="n">
+        <v>929594</v>
+      </c>
+      <c r="D4732" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4732" t="n">
+        <v>929594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4732"/>
+  <dimension ref="A1:E4739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72579,6 +72579,125 @@
         <v>929594</v>
       </c>
     </row>
+    <row r="4733">
+      <c r="A4733" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B4733" t="n">
+        <v>909938</v>
+      </c>
+      <c r="C4733" t="n">
+        <v>929594</v>
+      </c>
+      <c r="D4733" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4733" t="n">
+        <v>929594</v>
+      </c>
+    </row>
+    <row r="4734">
+      <c r="A4734" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B4734" t="n">
+        <v>929594</v>
+      </c>
+      <c r="C4734" t="n">
+        <v>962428</v>
+      </c>
+      <c r="D4734" t="n">
+        <v>775268</v>
+      </c>
+      <c r="E4734" t="n">
+        <v>962428</v>
+      </c>
+    </row>
+    <row r="4735">
+      <c r="A4735" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B4735" t="n">
+        <v>962428</v>
+      </c>
+      <c r="C4735" t="n">
+        <v>890442</v>
+      </c>
+      <c r="D4735" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4735" t="n">
+        <v>890442</v>
+      </c>
+    </row>
+    <row r="4736">
+      <c r="A4736" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B4736" t="n">
+        <v>890442</v>
+      </c>
+      <c r="C4736" t="n">
+        <v>872592</v>
+      </c>
+      <c r="D4736" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4736" t="n">
+        <v>872592</v>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B4737" t="n">
+        <v>872592</v>
+      </c>
+      <c r="C4737" t="n">
+        <v>853110</v>
+      </c>
+      <c r="D4737" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4737" t="n">
+        <v>853110</v>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B4738" t="n">
+        <v>853110</v>
+      </c>
+      <c r="C4738" t="n">
+        <v>866863</v>
+      </c>
+      <c r="D4738" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4738" t="n">
+        <v>866863</v>
+      </c>
+    </row>
+    <row r="4739">
+      <c r="A4739" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B4739" t="n">
+        <v>866863</v>
+      </c>
+      <c r="C4739" t="n">
+        <v>845541</v>
+      </c>
+      <c r="D4739" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4739" t="n">
+        <v>845541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4739"/>
+  <dimension ref="A1:E4752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72698,6 +72698,227 @@
         <v>845541</v>
       </c>
     </row>
+    <row r="4740">
+      <c r="A4740" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B4740" t="n">
+        <v>866863</v>
+      </c>
+      <c r="C4740" t="n">
+        <v>845541</v>
+      </c>
+      <c r="D4740" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4740" t="n">
+        <v>845541</v>
+      </c>
+    </row>
+    <row r="4741">
+      <c r="A4741" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B4741" t="n">
+        <v>845541</v>
+      </c>
+      <c r="C4741" t="n">
+        <v>816809</v>
+      </c>
+      <c r="D4741" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4741" t="n">
+        <v>816809</v>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B4742" t="n">
+        <v>816809</v>
+      </c>
+      <c r="C4742" t="n">
+        <v>804246</v>
+      </c>
+      <c r="D4742" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4742" t="n">
+        <v>804246</v>
+      </c>
+    </row>
+    <row r="4743">
+      <c r="A4743" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B4743" t="n">
+        <v>804246</v>
+      </c>
+      <c r="C4743" t="n">
+        <v>795161</v>
+      </c>
+      <c r="D4743" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4743" t="n">
+        <v>795161</v>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B4744" t="n">
+        <v>795161</v>
+      </c>
+      <c r="C4744" t="n">
+        <v>808430</v>
+      </c>
+      <c r="D4744" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4744" t="n">
+        <v>808430</v>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B4745" t="n">
+        <v>808430</v>
+      </c>
+      <c r="C4745" t="n">
+        <v>805661</v>
+      </c>
+      <c r="D4745" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4745" t="n">
+        <v>805661</v>
+      </c>
+    </row>
+    <row r="4746">
+      <c r="A4746" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B4746" t="n">
+        <v>805661</v>
+      </c>
+      <c r="C4746" t="n">
+        <v>706108</v>
+      </c>
+      <c r="D4746" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4746" t="n">
+        <v>706108</v>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B4747" t="n">
+        <v>706108</v>
+      </c>
+      <c r="C4747" t="n">
+        <v>716876</v>
+      </c>
+      <c r="D4747" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4747" t="n">
+        <v>716876</v>
+      </c>
+    </row>
+    <row r="4748">
+      <c r="A4748" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B4748" t="n">
+        <v>716876</v>
+      </c>
+      <c r="C4748" t="n">
+        <v>724577</v>
+      </c>
+      <c r="D4748" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4748" t="n">
+        <v>724577</v>
+      </c>
+    </row>
+    <row r="4749">
+      <c r="A4749" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B4749" t="n">
+        <v>724577</v>
+      </c>
+      <c r="C4749" t="n">
+        <v>737727</v>
+      </c>
+      <c r="D4749" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4749" t="n">
+        <v>737727</v>
+      </c>
+    </row>
+    <row r="4750">
+      <c r="A4750" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B4750" t="n">
+        <v>737727</v>
+      </c>
+      <c r="C4750" t="n">
+        <v>738412</v>
+      </c>
+      <c r="D4750" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4750" t="n">
+        <v>738412</v>
+      </c>
+    </row>
+    <row r="4751">
+      <c r="A4751" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B4751" t="n">
+        <v>737727</v>
+      </c>
+      <c r="C4751" t="n">
+        <v>738412</v>
+      </c>
+      <c r="D4751" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4751" t="n">
+        <v>738412</v>
+      </c>
+    </row>
+    <row r="4752">
+      <c r="A4752" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B4752" t="n">
+        <v>738412</v>
+      </c>
+      <c r="C4752" t="n">
+        <v>710882</v>
+      </c>
+      <c r="D4752" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4752" t="n">
+        <v>710882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4752"/>
+  <dimension ref="A1:E4758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72919,6 +72919,108 @@
         <v>710882</v>
       </c>
     </row>
+    <row r="4753">
+      <c r="A4753" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B4753" t="n">
+        <v>738412</v>
+      </c>
+      <c r="C4753" t="n">
+        <v>710882</v>
+      </c>
+      <c r="D4753" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4753" t="n">
+        <v>710882</v>
+      </c>
+    </row>
+    <row r="4754">
+      <c r="A4754" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B4754" t="n">
+        <v>710882</v>
+      </c>
+      <c r="C4754" t="n">
+        <v>703626</v>
+      </c>
+      <c r="D4754" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4754" t="n">
+        <v>703626</v>
+      </c>
+    </row>
+    <row r="4755">
+      <c r="A4755" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B4755" t="n">
+        <v>703626</v>
+      </c>
+      <c r="C4755" t="n">
+        <v>697953</v>
+      </c>
+      <c r="D4755" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4755" t="n">
+        <v>697953</v>
+      </c>
+    </row>
+    <row r="4756">
+      <c r="A4756" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B4756" t="n">
+        <v>697953</v>
+      </c>
+      <c r="C4756" t="n">
+        <v>718888</v>
+      </c>
+      <c r="D4756" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4756" t="n">
+        <v>718888</v>
+      </c>
+    </row>
+    <row r="4757">
+      <c r="A4757" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B4757" t="n">
+        <v>718888</v>
+      </c>
+      <c r="C4757" t="n">
+        <v>716020</v>
+      </c>
+      <c r="D4757" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4757" t="n">
+        <v>716020</v>
+      </c>
+    </row>
+    <row r="4758">
+      <c r="A4758" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B4758" t="n">
+        <v>716020</v>
+      </c>
+      <c r="C4758" t="n">
+        <v>699060</v>
+      </c>
+      <c r="D4758" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4758" t="n">
+        <v>699060</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4758"/>
+  <dimension ref="A1:E4761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73021,6 +73021,57 @@
         <v>699060</v>
       </c>
     </row>
+    <row r="4759">
+      <c r="A4759" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B4759" t="n">
+        <v>716020</v>
+      </c>
+      <c r="C4759" t="n">
+        <v>699060</v>
+      </c>
+      <c r="D4759" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4759" t="n">
+        <v>699060</v>
+      </c>
+    </row>
+    <row r="4760">
+      <c r="A4760" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B4760" t="n">
+        <v>699060</v>
+      </c>
+      <c r="C4760" t="n">
+        <v>718926</v>
+      </c>
+      <c r="D4760" t="n">
+        <v>962428</v>
+      </c>
+      <c r="E4760" t="n">
+        <v>718926</v>
+      </c>
+    </row>
+    <row r="4761">
+      <c r="A4761" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B4761" t="n">
+        <v>718926</v>
+      </c>
+      <c r="C4761" t="n">
+        <v>712359</v>
+      </c>
+      <c r="D4761" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4761" t="n">
+        <v>712359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4761"/>
+  <dimension ref="A1:E4772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73072,6 +73072,193 @@
         <v>712359</v>
       </c>
     </row>
+    <row r="4762">
+      <c r="A4762" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B4762" t="n">
+        <v>718926</v>
+      </c>
+      <c r="C4762" t="n">
+        <v>712359</v>
+      </c>
+      <c r="D4762" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4762" t="n">
+        <v>712359</v>
+      </c>
+    </row>
+    <row r="4763">
+      <c r="A4763" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B4763" t="n">
+        <v>712359</v>
+      </c>
+      <c r="C4763" t="n">
+        <v>700652</v>
+      </c>
+      <c r="D4763" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4763" t="n">
+        <v>700652</v>
+      </c>
+    </row>
+    <row r="4764">
+      <c r="A4764" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B4764" t="n">
+        <v>700652</v>
+      </c>
+      <c r="C4764" t="n">
+        <v>703314</v>
+      </c>
+      <c r="D4764" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4764" t="n">
+        <v>703314</v>
+      </c>
+    </row>
+    <row r="4765">
+      <c r="A4765" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B4765" t="n">
+        <v>703314</v>
+      </c>
+      <c r="C4765" t="n">
+        <v>680746</v>
+      </c>
+      <c r="D4765" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4765" t="n">
+        <v>680746</v>
+      </c>
+    </row>
+    <row r="4766">
+      <c r="A4766" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B4766" t="n">
+        <v>680746</v>
+      </c>
+      <c r="C4766" t="n">
+        <v>675508</v>
+      </c>
+      <c r="D4766" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4766" t="n">
+        <v>675508</v>
+      </c>
+    </row>
+    <row r="4767">
+      <c r="A4767" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B4767" t="n">
+        <v>675508</v>
+      </c>
+      <c r="C4767" t="n">
+        <v>690309</v>
+      </c>
+      <c r="D4767" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4767" t="n">
+        <v>690309</v>
+      </c>
+    </row>
+    <row r="4768">
+      <c r="A4768" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B4768" t="n">
+        <v>690309</v>
+      </c>
+      <c r="C4768" t="n">
+        <v>667218</v>
+      </c>
+      <c r="D4768" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4768" t="n">
+        <v>667218</v>
+      </c>
+    </row>
+    <row r="4769">
+      <c r="A4769" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B4769" t="n">
+        <v>667218</v>
+      </c>
+      <c r="C4769" t="n">
+        <v>650212</v>
+      </c>
+      <c r="D4769" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4769" t="n">
+        <v>650212</v>
+      </c>
+    </row>
+    <row r="4770">
+      <c r="A4770" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B4770" t="n">
+        <v>650212</v>
+      </c>
+      <c r="C4770" t="n">
+        <v>648027</v>
+      </c>
+      <c r="D4770" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4770" t="n">
+        <v>648027</v>
+      </c>
+    </row>
+    <row r="4771">
+      <c r="A4771" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B4771" t="n">
+        <v>650212</v>
+      </c>
+      <c r="C4771" t="n">
+        <v>648027</v>
+      </c>
+      <c r="D4771" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4771" t="n">
+        <v>648027</v>
+      </c>
+    </row>
+    <row r="4772">
+      <c r="A4772" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B4772" t="n">
+        <v>648027</v>
+      </c>
+      <c r="C4772" t="n">
+        <v>676305</v>
+      </c>
+      <c r="D4772" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4772" t="n">
+        <v>676305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4772"/>
+  <dimension ref="A1:E4777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73259,6 +73259,91 @@
         <v>676305</v>
       </c>
     </row>
+    <row r="4773">
+      <c r="A4773" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B4773" t="n">
+        <v>648027</v>
+      </c>
+      <c r="C4773" t="n">
+        <v>676305</v>
+      </c>
+      <c r="D4773" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4773" t="n">
+        <v>676305</v>
+      </c>
+    </row>
+    <row r="4774">
+      <c r="A4774" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B4774" t="n">
+        <v>676305</v>
+      </c>
+      <c r="C4774" t="n">
+        <v>822612</v>
+      </c>
+      <c r="D4774" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4774" t="n">
+        <v>822612</v>
+      </c>
+    </row>
+    <row r="4775">
+      <c r="A4775" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B4775" t="n">
+        <v>822612</v>
+      </c>
+      <c r="C4775" t="n">
+        <v>782158</v>
+      </c>
+      <c r="D4775" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4775" t="n">
+        <v>782158</v>
+      </c>
+    </row>
+    <row r="4776">
+      <c r="A4776" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B4776" t="n">
+        <v>782158</v>
+      </c>
+      <c r="C4776" t="n">
+        <v>771749</v>
+      </c>
+      <c r="D4776" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4776" t="n">
+        <v>771749</v>
+      </c>
+    </row>
+    <row r="4777">
+      <c r="A4777" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B4777" t="n">
+        <v>771749</v>
+      </c>
+      <c r="C4777" t="n">
+        <v>763426</v>
+      </c>
+      <c r="D4777" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4777" t="n">
+        <v>763426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4777"/>
+  <dimension ref="A1:E4806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73344,6 +73344,499 @@
         <v>763426</v>
       </c>
     </row>
+    <row r="4778">
+      <c r="A4778" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B4778" t="n">
+        <v>771749</v>
+      </c>
+      <c r="C4778" t="n">
+        <v>763426</v>
+      </c>
+      <c r="D4778" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4778" t="n">
+        <v>763426</v>
+      </c>
+    </row>
+    <row r="4779">
+      <c r="A4779" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B4779" t="n">
+        <v>763426</v>
+      </c>
+      <c r="C4779" t="n">
+        <v>784434</v>
+      </c>
+      <c r="D4779" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4779" t="n">
+        <v>784434</v>
+      </c>
+    </row>
+    <row r="4780">
+      <c r="A4780" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B4780" t="n">
+        <v>784434</v>
+      </c>
+      <c r="C4780" t="n">
+        <v>767249</v>
+      </c>
+      <c r="D4780" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4780" t="n">
+        <v>767249</v>
+      </c>
+    </row>
+    <row r="4781">
+      <c r="A4781" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B4781" t="n">
+        <v>767249</v>
+      </c>
+      <c r="C4781" t="n">
+        <v>744206</v>
+      </c>
+      <c r="D4781" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4781" t="n">
+        <v>744206</v>
+      </c>
+    </row>
+    <row r="4782">
+      <c r="A4782" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B4782" t="n">
+        <v>744206</v>
+      </c>
+      <c r="C4782" t="n">
+        <v>718618</v>
+      </c>
+      <c r="D4782" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4782" t="n">
+        <v>718618</v>
+      </c>
+    </row>
+    <row r="4783">
+      <c r="A4783" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B4783" t="n">
+        <v>718618</v>
+      </c>
+      <c r="C4783" t="n">
+        <v>777798</v>
+      </c>
+      <c r="D4783" t="n">
+        <v>718926</v>
+      </c>
+      <c r="E4783" t="n">
+        <v>777798</v>
+      </c>
+    </row>
+    <row r="4784">
+      <c r="A4784" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B4784" t="n">
+        <v>777798</v>
+      </c>
+      <c r="C4784" t="n">
+        <v>763439</v>
+      </c>
+      <c r="D4784" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4784" t="n">
+        <v>763439</v>
+      </c>
+    </row>
+    <row r="4785">
+      <c r="A4785" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B4785" t="n">
+        <v>763439</v>
+      </c>
+      <c r="C4785" t="n">
+        <v>768554</v>
+      </c>
+      <c r="D4785" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4785" t="n">
+        <v>768554</v>
+      </c>
+    </row>
+    <row r="4786">
+      <c r="A4786" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B4786" t="n">
+        <v>768554</v>
+      </c>
+      <c r="C4786" t="n">
+        <v>745608</v>
+      </c>
+      <c r="D4786" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4786" t="n">
+        <v>745608</v>
+      </c>
+    </row>
+    <row r="4787">
+      <c r="A4787" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B4787" t="n">
+        <v>745608</v>
+      </c>
+      <c r="C4787" t="n">
+        <v>732159</v>
+      </c>
+      <c r="D4787" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4787" t="n">
+        <v>732159</v>
+      </c>
+    </row>
+    <row r="4788">
+      <c r="A4788" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B4788" t="n">
+        <v>732159</v>
+      </c>
+      <c r="C4788" t="n">
+        <v>743168</v>
+      </c>
+      <c r="D4788" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4788" t="n">
+        <v>743168</v>
+      </c>
+    </row>
+    <row r="4789">
+      <c r="A4789" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B4789" t="n">
+        <v>743168</v>
+      </c>
+      <c r="C4789" t="n">
+        <v>747238</v>
+      </c>
+      <c r="D4789" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4789" t="n">
+        <v>747238</v>
+      </c>
+    </row>
+    <row r="4790">
+      <c r="A4790" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B4790" t="n">
+        <v>747238</v>
+      </c>
+      <c r="C4790" t="n">
+        <v>722328</v>
+      </c>
+      <c r="D4790" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4790" t="n">
+        <v>722328</v>
+      </c>
+    </row>
+    <row r="4791">
+      <c r="A4791" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B4791" t="n">
+        <v>722328</v>
+      </c>
+      <c r="C4791" t="n">
+        <v>731416</v>
+      </c>
+      <c r="D4791" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4791" t="n">
+        <v>731416</v>
+      </c>
+    </row>
+    <row r="4792">
+      <c r="A4792" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B4792" t="n">
+        <v>731416</v>
+      </c>
+      <c r="C4792" t="n">
+        <v>734465</v>
+      </c>
+      <c r="D4792" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4792" t="n">
+        <v>734465</v>
+      </c>
+    </row>
+    <row r="4793">
+      <c r="A4793" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B4793" t="n">
+        <v>734465</v>
+      </c>
+      <c r="C4793" t="n">
+        <v>764538</v>
+      </c>
+      <c r="D4793" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4793" t="n">
+        <v>764538</v>
+      </c>
+    </row>
+    <row r="4794">
+      <c r="A4794" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B4794" t="n">
+        <v>764538</v>
+      </c>
+      <c r="C4794" t="n">
+        <v>795024</v>
+      </c>
+      <c r="D4794" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4794" t="n">
+        <v>795024</v>
+      </c>
+    </row>
+    <row r="4795">
+      <c r="A4795" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B4795" t="n">
+        <v>795024</v>
+      </c>
+      <c r="C4795" t="n">
+        <v>766779</v>
+      </c>
+      <c r="D4795" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4795" t="n">
+        <v>766779</v>
+      </c>
+    </row>
+    <row r="4796">
+      <c r="A4796" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B4796" t="n">
+        <v>766779</v>
+      </c>
+      <c r="C4796" t="n">
+        <v>775779</v>
+      </c>
+      <c r="D4796" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4796" t="n">
+        <v>775779</v>
+      </c>
+    </row>
+    <row r="4797">
+      <c r="A4797" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B4797" t="n">
+        <v>775779</v>
+      </c>
+      <c r="C4797" t="n">
+        <v>771252</v>
+      </c>
+      <c r="D4797" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4797" t="n">
+        <v>771252</v>
+      </c>
+    </row>
+    <row r="4798">
+      <c r="A4798" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B4798" t="n">
+        <v>771252</v>
+      </c>
+      <c r="C4798" t="n">
+        <v>769783</v>
+      </c>
+      <c r="D4798" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4798" t="n">
+        <v>769783</v>
+      </c>
+    </row>
+    <row r="4799">
+      <c r="A4799" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B4799" t="n">
+        <v>769783</v>
+      </c>
+      <c r="C4799" t="n">
+        <v>793467</v>
+      </c>
+      <c r="D4799" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4799" t="n">
+        <v>793467</v>
+      </c>
+    </row>
+    <row r="4800">
+      <c r="A4800" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B4800" t="n">
+        <v>793467</v>
+      </c>
+      <c r="C4800" t="n">
+        <v>767419</v>
+      </c>
+      <c r="D4800" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4800" t="n">
+        <v>767419</v>
+      </c>
+    </row>
+    <row r="4801">
+      <c r="A4801" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B4801" t="n">
+        <v>767419</v>
+      </c>
+      <c r="C4801" t="n">
+        <v>767894</v>
+      </c>
+      <c r="D4801" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4801" t="n">
+        <v>767894</v>
+      </c>
+    </row>
+    <row r="4802">
+      <c r="A4802" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B4802" t="n">
+        <v>767894</v>
+      </c>
+      <c r="C4802" t="n">
+        <v>766528</v>
+      </c>
+      <c r="D4802" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4802" t="n">
+        <v>766528</v>
+      </c>
+    </row>
+    <row r="4803">
+      <c r="A4803" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B4803" t="n">
+        <v>766528</v>
+      </c>
+      <c r="C4803" t="n">
+        <v>781500</v>
+      </c>
+      <c r="D4803" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4803" t="n">
+        <v>781500</v>
+      </c>
+    </row>
+    <row r="4804">
+      <c r="A4804" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B4804" t="n">
+        <v>781500</v>
+      </c>
+      <c r="C4804" t="n">
+        <v>802422</v>
+      </c>
+      <c r="D4804" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4804" t="n">
+        <v>802422</v>
+      </c>
+    </row>
+    <row r="4805">
+      <c r="A4805" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B4805" t="n">
+        <v>802422</v>
+      </c>
+      <c r="C4805" t="n">
+        <v>854001</v>
+      </c>
+      <c r="D4805" t="n">
+        <v>777798</v>
+      </c>
+      <c r="E4805" t="n">
+        <v>854001</v>
+      </c>
+    </row>
+    <row r="4806">
+      <c r="A4806" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B4806" t="n">
+        <v>854001</v>
+      </c>
+      <c r="C4806" t="n">
+        <v>785094</v>
+      </c>
+      <c r="D4806" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4806" t="n">
+        <v>785094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4806"/>
+  <dimension ref="A1:E4815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73837,6 +73837,159 @@
         <v>785094</v>
       </c>
     </row>
+    <row r="4807">
+      <c r="A4807" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B4807" t="n">
+        <v>854001</v>
+      </c>
+      <c r="C4807" t="n">
+        <v>785094</v>
+      </c>
+      <c r="D4807" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4807" t="n">
+        <v>785094</v>
+      </c>
+    </row>
+    <row r="4808">
+      <c r="A4808" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B4808" t="n">
+        <v>785094</v>
+      </c>
+      <c r="C4808" t="n">
+        <v>759058</v>
+      </c>
+      <c r="D4808" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4808" t="n">
+        <v>759058</v>
+      </c>
+    </row>
+    <row r="4809">
+      <c r="A4809" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B4809" t="n">
+        <v>759058</v>
+      </c>
+      <c r="C4809" t="n">
+        <v>769196</v>
+      </c>
+      <c r="D4809" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4809" t="n">
+        <v>769196</v>
+      </c>
+    </row>
+    <row r="4810">
+      <c r="A4810" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B4810" t="n">
+        <v>769196</v>
+      </c>
+      <c r="C4810" t="n">
+        <v>779820</v>
+      </c>
+      <c r="D4810" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4810" t="n">
+        <v>779820</v>
+      </c>
+    </row>
+    <row r="4811">
+      <c r="A4811" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B4811" t="n">
+        <v>779820</v>
+      </c>
+      <c r="C4811" t="n">
+        <v>785233</v>
+      </c>
+      <c r="D4811" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4811" t="n">
+        <v>785233</v>
+      </c>
+    </row>
+    <row r="4812">
+      <c r="A4812" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B4812" t="n">
+        <v>785233</v>
+      </c>
+      <c r="C4812" t="n">
+        <v>792296</v>
+      </c>
+      <c r="D4812" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4812" t="n">
+        <v>792296</v>
+      </c>
+    </row>
+    <row r="4813">
+      <c r="A4813" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B4813" t="n">
+        <v>792296</v>
+      </c>
+      <c r="C4813" t="n">
+        <v>788359</v>
+      </c>
+      <c r="D4813" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4813" t="n">
+        <v>788359</v>
+      </c>
+    </row>
+    <row r="4814">
+      <c r="A4814" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B4814" t="n">
+        <v>788359</v>
+      </c>
+      <c r="C4814" t="n">
+        <v>800035</v>
+      </c>
+      <c r="D4814" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4814" t="n">
+        <v>800035</v>
+      </c>
+    </row>
+    <row r="4815">
+      <c r="A4815" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B4815" t="n">
+        <v>800035</v>
+      </c>
+      <c r="C4815" t="n">
+        <v>812614</v>
+      </c>
+      <c r="D4815" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4815" t="n">
+        <v>812614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4815"/>
+  <dimension ref="A1:E4818"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73990,6 +73990,57 @@
         <v>812614</v>
       </c>
     </row>
+    <row r="4816">
+      <c r="A4816" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B4816" t="n">
+        <v>800035</v>
+      </c>
+      <c r="C4816" t="n">
+        <v>812614</v>
+      </c>
+      <c r="D4816" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4816" t="n">
+        <v>812614</v>
+      </c>
+    </row>
+    <row r="4817">
+      <c r="A4817" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B4817" t="n">
+        <v>812614</v>
+      </c>
+      <c r="C4817" t="n">
+        <v>788823</v>
+      </c>
+      <c r="D4817" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4817" t="n">
+        <v>788823</v>
+      </c>
+    </row>
+    <row r="4818">
+      <c r="A4818" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B4818" t="n">
+        <v>788823</v>
+      </c>
+      <c r="C4818" t="n">
+        <v>725909</v>
+      </c>
+      <c r="D4818" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4818" t="n">
+        <v>725909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4818"/>
+  <dimension ref="A1:E4835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74041,6 +74041,295 @@
         <v>725909</v>
       </c>
     </row>
+    <row r="4819">
+      <c r="A4819" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B4819" t="n">
+        <v>788823</v>
+      </c>
+      <c r="C4819" t="n">
+        <v>725909</v>
+      </c>
+      <c r="D4819" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4819" t="n">
+        <v>725909</v>
+      </c>
+    </row>
+    <row r="4820">
+      <c r="A4820" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B4820" t="n">
+        <v>725909</v>
+      </c>
+      <c r="C4820" t="n">
+        <v>730937</v>
+      </c>
+      <c r="D4820" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4820" t="n">
+        <v>730937</v>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B4821" t="n">
+        <v>730937</v>
+      </c>
+      <c r="C4821" t="n">
+        <v>743033</v>
+      </c>
+      <c r="D4821" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4821" t="n">
+        <v>743033</v>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B4822" t="n">
+        <v>743033</v>
+      </c>
+      <c r="C4822" t="n">
+        <v>758980</v>
+      </c>
+      <c r="D4822" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4822" t="n">
+        <v>758980</v>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B4823" t="n">
+        <v>758980</v>
+      </c>
+      <c r="C4823" t="n">
+        <v>734727</v>
+      </c>
+      <c r="D4823" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4823" t="n">
+        <v>734727</v>
+      </c>
+    </row>
+    <row r="4824">
+      <c r="A4824" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B4824" t="n">
+        <v>734727</v>
+      </c>
+      <c r="C4824" t="n">
+        <v>734733</v>
+      </c>
+      <c r="D4824" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4824" t="n">
+        <v>734733</v>
+      </c>
+    </row>
+    <row r="4825">
+      <c r="A4825" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B4825" t="n">
+        <v>734733</v>
+      </c>
+      <c r="C4825" t="n">
+        <v>734234</v>
+      </c>
+      <c r="D4825" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4825" t="n">
+        <v>734234</v>
+      </c>
+    </row>
+    <row r="4826">
+      <c r="A4826" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B4826" t="n">
+        <v>734234</v>
+      </c>
+      <c r="C4826" t="n">
+        <v>740219</v>
+      </c>
+      <c r="D4826" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4826" t="n">
+        <v>740219</v>
+      </c>
+    </row>
+    <row r="4827">
+      <c r="A4827" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B4827" t="n">
+        <v>740219</v>
+      </c>
+      <c r="C4827" t="n">
+        <v>786228</v>
+      </c>
+      <c r="D4827" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4827" t="n">
+        <v>786228</v>
+      </c>
+    </row>
+    <row r="4828">
+      <c r="A4828" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B4828" t="n">
+        <v>786228</v>
+      </c>
+      <c r="C4828" t="n">
+        <v>757077</v>
+      </c>
+      <c r="D4828" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4828" t="n">
+        <v>757077</v>
+      </c>
+    </row>
+    <row r="4829">
+      <c r="A4829" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B4829" t="n">
+        <v>757077</v>
+      </c>
+      <c r="C4829" t="n">
+        <v>754480</v>
+      </c>
+      <c r="D4829" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4829" t="n">
+        <v>754480</v>
+      </c>
+    </row>
+    <row r="4830">
+      <c r="A4830" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B4830" t="n">
+        <v>754480</v>
+      </c>
+      <c r="C4830" t="n">
+        <v>709513</v>
+      </c>
+      <c r="D4830" t="n">
+        <v>854001</v>
+      </c>
+      <c r="E4830" t="n">
+        <v>709513</v>
+      </c>
+    </row>
+    <row r="4831">
+      <c r="A4831" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B4831" t="n">
+        <v>709513</v>
+      </c>
+      <c r="C4831" t="n">
+        <v>774135</v>
+      </c>
+      <c r="D4831" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4831" t="n">
+        <v>774135</v>
+      </c>
+    </row>
+    <row r="4832">
+      <c r="A4832" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B4832" t="n">
+        <v>774135</v>
+      </c>
+      <c r="C4832" t="n">
+        <v>771047</v>
+      </c>
+      <c r="D4832" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4832" t="n">
+        <v>771047</v>
+      </c>
+    </row>
+    <row r="4833">
+      <c r="A4833" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B4833" t="n">
+        <v>771047</v>
+      </c>
+      <c r="C4833" t="n">
+        <v>769122</v>
+      </c>
+      <c r="D4833" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4833" t="n">
+        <v>769122</v>
+      </c>
+    </row>
+    <row r="4834">
+      <c r="A4834" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B4834" t="n">
+        <v>769122</v>
+      </c>
+      <c r="C4834" t="n">
+        <v>759836</v>
+      </c>
+      <c r="D4834" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4834" t="n">
+        <v>759836</v>
+      </c>
+    </row>
+    <row r="4835">
+      <c r="A4835" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B4835" t="n">
+        <v>759836</v>
+      </c>
+      <c r="C4835" t="n">
+        <v>771405</v>
+      </c>
+      <c r="D4835" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4835" t="n">
+        <v>771405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4835"/>
+  <dimension ref="A1:E4857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74330,6 +74330,380 @@
         <v>771405</v>
       </c>
     </row>
+    <row r="4836">
+      <c r="A4836" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B4836" t="n">
+        <v>759836</v>
+      </c>
+      <c r="C4836" t="n">
+        <v>771405</v>
+      </c>
+      <c r="D4836" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4836" t="n">
+        <v>771405</v>
+      </c>
+    </row>
+    <row r="4837">
+      <c r="A4837" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B4837" t="n">
+        <v>771405</v>
+      </c>
+      <c r="C4837" t="n">
+        <v>746095</v>
+      </c>
+      <c r="D4837" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4837" t="n">
+        <v>746095</v>
+      </c>
+    </row>
+    <row r="4838">
+      <c r="A4838" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B4838" t="n">
+        <v>746095</v>
+      </c>
+      <c r="C4838" t="n">
+        <v>725577</v>
+      </c>
+      <c r="D4838" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4838" t="n">
+        <v>725577</v>
+      </c>
+    </row>
+    <row r="4839">
+      <c r="A4839" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B4839" t="n">
+        <v>725577</v>
+      </c>
+      <c r="C4839" t="n">
+        <v>688354</v>
+      </c>
+      <c r="D4839" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4839" t="n">
+        <v>688354</v>
+      </c>
+    </row>
+    <row r="4840">
+      <c r="A4840" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B4840" t="n">
+        <v>688354</v>
+      </c>
+      <c r="C4840" t="n">
+        <v>713930</v>
+      </c>
+      <c r="D4840" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4840" t="n">
+        <v>713930</v>
+      </c>
+    </row>
+    <row r="4841">
+      <c r="A4841" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B4841" t="n">
+        <v>713930</v>
+      </c>
+      <c r="C4841" t="n">
+        <v>875103</v>
+      </c>
+      <c r="D4841" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4841" t="n">
+        <v>875103</v>
+      </c>
+    </row>
+    <row r="4842">
+      <c r="A4842" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B4842" t="n">
+        <v>875103</v>
+      </c>
+      <c r="C4842" t="n">
+        <v>853715</v>
+      </c>
+      <c r="D4842" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4842" t="n">
+        <v>853715</v>
+      </c>
+    </row>
+    <row r="4843">
+      <c r="A4843" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B4843" t="n">
+        <v>853715</v>
+      </c>
+      <c r="C4843" t="n">
+        <v>839398</v>
+      </c>
+      <c r="D4843" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4843" t="n">
+        <v>839398</v>
+      </c>
+    </row>
+    <row r="4844">
+      <c r="A4844" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B4844" t="n">
+        <v>839398</v>
+      </c>
+      <c r="C4844" t="n">
+        <v>825250</v>
+      </c>
+      <c r="D4844" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4844" t="n">
+        <v>825250</v>
+      </c>
+    </row>
+    <row r="4845">
+      <c r="A4845" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B4845" t="n">
+        <v>825250</v>
+      </c>
+      <c r="C4845" t="n">
+        <v>804739</v>
+      </c>
+      <c r="D4845" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4845" t="n">
+        <v>804739</v>
+      </c>
+    </row>
+    <row r="4846">
+      <c r="A4846" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B4846" t="n">
+        <v>804739</v>
+      </c>
+      <c r="C4846" t="n">
+        <v>824326</v>
+      </c>
+      <c r="D4846" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4846" t="n">
+        <v>824326</v>
+      </c>
+    </row>
+    <row r="4847">
+      <c r="A4847" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B4847" t="n">
+        <v>824326</v>
+      </c>
+      <c r="C4847" t="n">
+        <v>804696</v>
+      </c>
+      <c r="D4847" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4847" t="n">
+        <v>804696</v>
+      </c>
+    </row>
+    <row r="4848">
+      <c r="A4848" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B4848" t="n">
+        <v>804696</v>
+      </c>
+      <c r="C4848" t="n">
+        <v>778910</v>
+      </c>
+      <c r="D4848" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4848" t="n">
+        <v>778910</v>
+      </c>
+    </row>
+    <row r="4849">
+      <c r="A4849" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B4849" t="n">
+        <v>778910</v>
+      </c>
+      <c r="C4849" t="n">
+        <v>746699</v>
+      </c>
+      <c r="D4849" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4849" t="n">
+        <v>746699</v>
+      </c>
+    </row>
+    <row r="4850">
+      <c r="A4850" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B4850" t="n">
+        <v>746699</v>
+      </c>
+      <c r="C4850" t="n">
+        <v>772704</v>
+      </c>
+      <c r="D4850" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4850" t="n">
+        <v>772704</v>
+      </c>
+    </row>
+    <row r="4851">
+      <c r="A4851" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B4851" t="n">
+        <v>772704</v>
+      </c>
+      <c r="C4851" t="n">
+        <v>885725</v>
+      </c>
+      <c r="D4851" t="n">
+        <v>709513</v>
+      </c>
+      <c r="E4851" t="n">
+        <v>885725</v>
+      </c>
+    </row>
+    <row r="4852">
+      <c r="A4852" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B4852" t="n">
+        <v>885725</v>
+      </c>
+      <c r="C4852" t="n">
+        <v>813994</v>
+      </c>
+      <c r="D4852" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4852" t="n">
+        <v>813994</v>
+      </c>
+    </row>
+    <row r="4853">
+      <c r="A4853" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B4853" t="n">
+        <v>813994</v>
+      </c>
+      <c r="C4853" t="n">
+        <v>823412</v>
+      </c>
+      <c r="D4853" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4853" t="n">
+        <v>823412</v>
+      </c>
+    </row>
+    <row r="4854">
+      <c r="A4854" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B4854" t="n">
+        <v>823412</v>
+      </c>
+      <c r="C4854" t="n">
+        <v>795948</v>
+      </c>
+      <c r="D4854" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4854" t="n">
+        <v>795948</v>
+      </c>
+    </row>
+    <row r="4855">
+      <c r="A4855" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B4855" t="n">
+        <v>795948</v>
+      </c>
+      <c r="C4855" t="n">
+        <v>800250</v>
+      </c>
+      <c r="D4855" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4855" t="n">
+        <v>800250</v>
+      </c>
+    </row>
+    <row r="4856">
+      <c r="A4856" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B4856" t="n">
+        <v>800250</v>
+      </c>
+      <c r="C4856" t="n">
+        <v>810517</v>
+      </c>
+      <c r="D4856" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4856" t="n">
+        <v>810517</v>
+      </c>
+    </row>
+    <row r="4857">
+      <c r="A4857" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B4857" t="n">
+        <v>810517</v>
+      </c>
+      <c r="C4857" t="n">
+        <v>820191</v>
+      </c>
+      <c r="D4857" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4857" t="n">
+        <v>820191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4857"/>
+  <dimension ref="A1:E4860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74704,6 +74704,57 @@
         <v>820191</v>
       </c>
     </row>
+    <row r="4858">
+      <c r="A4858" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B4858" t="n">
+        <v>810517</v>
+      </c>
+      <c r="C4858" t="n">
+        <v>820191</v>
+      </c>
+      <c r="D4858" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4858" t="n">
+        <v>820191</v>
+      </c>
+    </row>
+    <row r="4859">
+      <c r="A4859" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B4859" t="n">
+        <v>820191</v>
+      </c>
+      <c r="C4859" t="n">
+        <v>787395</v>
+      </c>
+      <c r="D4859" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4859" t="n">
+        <v>787395</v>
+      </c>
+    </row>
+    <row r="4860">
+      <c r="A4860" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B4860" t="n">
+        <v>787395</v>
+      </c>
+      <c r="C4860" t="n">
+        <v>783345</v>
+      </c>
+      <c r="D4860" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4860" t="n">
+        <v>783345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4860"/>
+  <dimension ref="A1:E4880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74755,6 +74755,346 @@
         <v>783345</v>
       </c>
     </row>
+    <row r="4861">
+      <c r="A4861" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B4861" t="n">
+        <v>787395</v>
+      </c>
+      <c r="C4861" t="n">
+        <v>783345</v>
+      </c>
+      <c r="D4861" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4861" t="n">
+        <v>783345</v>
+      </c>
+    </row>
+    <row r="4862">
+      <c r="A4862" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B4862" t="n">
+        <v>783345</v>
+      </c>
+      <c r="C4862" t="n">
+        <v>779699</v>
+      </c>
+      <c r="D4862" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4862" t="n">
+        <v>779699</v>
+      </c>
+    </row>
+    <row r="4863">
+      <c r="A4863" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B4863" t="n">
+        <v>779699</v>
+      </c>
+      <c r="C4863" t="n">
+        <v>825653</v>
+      </c>
+      <c r="D4863" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4863" t="n">
+        <v>825653</v>
+      </c>
+    </row>
+    <row r="4864">
+      <c r="A4864" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B4864" t="n">
+        <v>825653</v>
+      </c>
+      <c r="C4864" t="n">
+        <v>814751</v>
+      </c>
+      <c r="D4864" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4864" t="n">
+        <v>814751</v>
+      </c>
+    </row>
+    <row r="4865">
+      <c r="A4865" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B4865" t="n">
+        <v>814751</v>
+      </c>
+      <c r="C4865" t="n">
+        <v>828847</v>
+      </c>
+      <c r="D4865" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4865" t="n">
+        <v>828847</v>
+      </c>
+    </row>
+    <row r="4866">
+      <c r="A4866" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B4866" t="n">
+        <v>828847</v>
+      </c>
+      <c r="C4866" t="n">
+        <v>827798</v>
+      </c>
+      <c r="D4866" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4866" t="n">
+        <v>827798</v>
+      </c>
+    </row>
+    <row r="4867">
+      <c r="A4867" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B4867" t="n">
+        <v>827798</v>
+      </c>
+      <c r="C4867" t="n">
+        <v>841596</v>
+      </c>
+      <c r="D4867" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4867" t="n">
+        <v>841596</v>
+      </c>
+    </row>
+    <row r="4868">
+      <c r="A4868" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B4868" t="n">
+        <v>841596</v>
+      </c>
+      <c r="C4868" t="n">
+        <v>838690</v>
+      </c>
+      <c r="D4868" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4868" t="n">
+        <v>838690</v>
+      </c>
+    </row>
+    <row r="4869">
+      <c r="A4869" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B4869" t="n">
+        <v>838690</v>
+      </c>
+      <c r="C4869" t="n">
+        <v>817410</v>
+      </c>
+      <c r="D4869" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4869" t="n">
+        <v>817410</v>
+      </c>
+    </row>
+    <row r="4870">
+      <c r="A4870" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B4870" t="n">
+        <v>817410</v>
+      </c>
+      <c r="C4870" t="n">
+        <v>834134</v>
+      </c>
+      <c r="D4870" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4870" t="n">
+        <v>834134</v>
+      </c>
+    </row>
+    <row r="4871">
+      <c r="A4871" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B4871" t="n">
+        <v>834134</v>
+      </c>
+      <c r="C4871" t="n">
+        <v>827478</v>
+      </c>
+      <c r="D4871" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4871" t="n">
+        <v>827478</v>
+      </c>
+    </row>
+    <row r="4872">
+      <c r="A4872" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B4872" t="n">
+        <v>827478</v>
+      </c>
+      <c r="C4872" t="n">
+        <v>835894</v>
+      </c>
+      <c r="D4872" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4872" t="n">
+        <v>835894</v>
+      </c>
+    </row>
+    <row r="4873">
+      <c r="A4873" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B4873" t="n">
+        <v>835894</v>
+      </c>
+      <c r="C4873" t="n">
+        <v>847063</v>
+      </c>
+      <c r="D4873" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4873" t="n">
+        <v>847063</v>
+      </c>
+    </row>
+    <row r="4874">
+      <c r="A4874" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B4874" t="n">
+        <v>847063</v>
+      </c>
+      <c r="C4874" t="n">
+        <v>847137</v>
+      </c>
+      <c r="D4874" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4874" t="n">
+        <v>847137</v>
+      </c>
+    </row>
+    <row r="4875">
+      <c r="A4875" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B4875" t="n">
+        <v>847137</v>
+      </c>
+      <c r="C4875" t="n">
+        <v>921042</v>
+      </c>
+      <c r="D4875" t="n">
+        <v>885725</v>
+      </c>
+      <c r="E4875" t="n">
+        <v>921042</v>
+      </c>
+    </row>
+    <row r="4876">
+      <c r="A4876" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B4876" t="n">
+        <v>921042</v>
+      </c>
+      <c r="C4876" t="n">
+        <v>819229</v>
+      </c>
+      <c r="D4876" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4876" t="n">
+        <v>819229</v>
+      </c>
+    </row>
+    <row r="4877">
+      <c r="A4877" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B4877" t="n">
+        <v>819229</v>
+      </c>
+      <c r="C4877" t="n">
+        <v>836603</v>
+      </c>
+      <c r="D4877" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4877" t="n">
+        <v>836603</v>
+      </c>
+    </row>
+    <row r="4878">
+      <c r="A4878" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B4878" t="n">
+        <v>836603</v>
+      </c>
+      <c r="C4878" t="n">
+        <v>838800</v>
+      </c>
+      <c r="D4878" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4878" t="n">
+        <v>838800</v>
+      </c>
+    </row>
+    <row r="4879">
+      <c r="A4879" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B4879" t="n">
+        <v>838800</v>
+      </c>
+      <c r="C4879" t="n">
+        <v>840227</v>
+      </c>
+      <c r="D4879" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4879" t="n">
+        <v>840227</v>
+      </c>
+    </row>
+    <row r="4880">
+      <c r="A4880" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B4880" t="n">
+        <v>840227</v>
+      </c>
+      <c r="C4880" t="n">
+        <v>839963</v>
+      </c>
+      <c r="D4880" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4880" t="n">
+        <v>839963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4880"/>
+  <dimension ref="A1:E4886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75095,6 +75095,108 @@
         <v>839963</v>
       </c>
     </row>
+    <row r="4881">
+      <c r="A4881" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B4881" t="n">
+        <v>840227</v>
+      </c>
+      <c r="C4881" t="n">
+        <v>839963</v>
+      </c>
+      <c r="D4881" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4881" t="n">
+        <v>839963</v>
+      </c>
+    </row>
+    <row r="4882">
+      <c r="A4882" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B4882" t="n">
+        <v>839963</v>
+      </c>
+      <c r="C4882" t="n">
+        <v>831278</v>
+      </c>
+      <c r="D4882" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4882" t="n">
+        <v>831278</v>
+      </c>
+    </row>
+    <row r="4883">
+      <c r="A4883" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B4883" t="n">
+        <v>831278</v>
+      </c>
+      <c r="C4883" t="n">
+        <v>851371</v>
+      </c>
+      <c r="D4883" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4883" t="n">
+        <v>851371</v>
+      </c>
+    </row>
+    <row r="4884">
+      <c r="A4884" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B4884" t="n">
+        <v>851371</v>
+      </c>
+      <c r="C4884" t="n">
+        <v>808857</v>
+      </c>
+      <c r="D4884" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4884" t="n">
+        <v>808857</v>
+      </c>
+    </row>
+    <row r="4885">
+      <c r="A4885" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B4885" t="n">
+        <v>808857</v>
+      </c>
+      <c r="C4885" t="n">
+        <v>815693</v>
+      </c>
+      <c r="D4885" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4885" t="n">
+        <v>815693</v>
+      </c>
+    </row>
+    <row r="4886">
+      <c r="A4886" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B4886" t="n">
+        <v>815693</v>
+      </c>
+      <c r="C4886" t="n">
+        <v>730911</v>
+      </c>
+      <c r="D4886" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4886" t="n">
+        <v>730911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4886"/>
+  <dimension ref="A1:E4907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75197,6 +75197,363 @@
         <v>730911</v>
       </c>
     </row>
+    <row r="4887">
+      <c r="A4887" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B4887" t="n">
+        <v>815693</v>
+      </c>
+      <c r="C4887" t="n">
+        <v>730911</v>
+      </c>
+      <c r="D4887" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4887" t="n">
+        <v>730911</v>
+      </c>
+    </row>
+    <row r="4888">
+      <c r="A4888" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B4888" t="n">
+        <v>730911</v>
+      </c>
+      <c r="C4888" t="n">
+        <v>754133</v>
+      </c>
+      <c r="D4888" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4888" t="n">
+        <v>754133</v>
+      </c>
+    </row>
+    <row r="4889">
+      <c r="A4889" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B4889" t="n">
+        <v>754133</v>
+      </c>
+      <c r="C4889" t="n">
+        <v>762717</v>
+      </c>
+      <c r="D4889" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4889" t="n">
+        <v>762717</v>
+      </c>
+    </row>
+    <row r="4890">
+      <c r="A4890" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B4890" t="n">
+        <v>762717</v>
+      </c>
+      <c r="C4890" t="n">
+        <v>737834</v>
+      </c>
+      <c r="D4890" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4890" t="n">
+        <v>737834</v>
+      </c>
+    </row>
+    <row r="4891">
+      <c r="A4891" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B4891" t="n">
+        <v>737834</v>
+      </c>
+      <c r="C4891" t="n">
+        <v>779696</v>
+      </c>
+      <c r="D4891" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4891" t="n">
+        <v>779696</v>
+      </c>
+    </row>
+    <row r="4892">
+      <c r="A4892" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B4892" t="n">
+        <v>779696</v>
+      </c>
+      <c r="C4892" t="n">
+        <v>758663</v>
+      </c>
+      <c r="D4892" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4892" t="n">
+        <v>758663</v>
+      </c>
+    </row>
+    <row r="4893">
+      <c r="A4893" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B4893" t="n">
+        <v>758663</v>
+      </c>
+      <c r="C4893" t="n">
+        <v>777116</v>
+      </c>
+      <c r="D4893" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4893" t="n">
+        <v>777116</v>
+      </c>
+    </row>
+    <row r="4894">
+      <c r="A4894" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B4894" t="n">
+        <v>777116</v>
+      </c>
+      <c r="C4894" t="n">
+        <v>811242</v>
+      </c>
+      <c r="D4894" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4894" t="n">
+        <v>811242</v>
+      </c>
+    </row>
+    <row r="4895">
+      <c r="A4895" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B4895" t="n">
+        <v>811242</v>
+      </c>
+      <c r="C4895" t="n">
+        <v>782704</v>
+      </c>
+      <c r="D4895" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4895" t="n">
+        <v>782704</v>
+      </c>
+    </row>
+    <row r="4896">
+      <c r="A4896" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B4896" t="n">
+        <v>782704</v>
+      </c>
+      <c r="C4896" t="n">
+        <v>756878</v>
+      </c>
+      <c r="D4896" t="n">
+        <v>921042</v>
+      </c>
+      <c r="E4896" t="n">
+        <v>756878</v>
+      </c>
+    </row>
+    <row r="4897">
+      <c r="A4897" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B4897" t="n">
+        <v>756878</v>
+      </c>
+      <c r="C4897" t="n">
+        <v>842781</v>
+      </c>
+      <c r="D4897" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4897" t="n">
+        <v>842781</v>
+      </c>
+    </row>
+    <row r="4898">
+      <c r="A4898" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B4898" t="n">
+        <v>842781</v>
+      </c>
+      <c r="C4898" t="n">
+        <v>815482</v>
+      </c>
+      <c r="D4898" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4898" t="n">
+        <v>815482</v>
+      </c>
+    </row>
+    <row r="4899">
+      <c r="A4899" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B4899" t="n">
+        <v>815482</v>
+      </c>
+      <c r="C4899" t="n">
+        <v>815011</v>
+      </c>
+      <c r="D4899" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4899" t="n">
+        <v>815011</v>
+      </c>
+    </row>
+    <row r="4900">
+      <c r="A4900" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B4900" t="n">
+        <v>815011</v>
+      </c>
+      <c r="C4900" t="n">
+        <v>798654</v>
+      </c>
+      <c r="D4900" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4900" t="n">
+        <v>798654</v>
+      </c>
+    </row>
+    <row r="4901">
+      <c r="A4901" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B4901" t="n">
+        <v>798654</v>
+      </c>
+      <c r="C4901" t="n">
+        <v>788754</v>
+      </c>
+      <c r="D4901" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4901" t="n">
+        <v>788754</v>
+      </c>
+    </row>
+    <row r="4902">
+      <c r="A4902" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B4902" t="n">
+        <v>788754</v>
+      </c>
+      <c r="C4902" t="n">
+        <v>800890</v>
+      </c>
+      <c r="D4902" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4902" t="n">
+        <v>800890</v>
+      </c>
+    </row>
+    <row r="4903">
+      <c r="A4903" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B4903" t="n">
+        <v>800890</v>
+      </c>
+      <c r="C4903" t="n">
+        <v>748309</v>
+      </c>
+      <c r="D4903" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4903" t="n">
+        <v>748309</v>
+      </c>
+    </row>
+    <row r="4904">
+      <c r="A4904" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B4904" t="n">
+        <v>748309</v>
+      </c>
+      <c r="C4904" t="n">
+        <v>711354</v>
+      </c>
+      <c r="D4904" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4904" t="n">
+        <v>711354</v>
+      </c>
+    </row>
+    <row r="4905">
+      <c r="A4905" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B4905" t="n">
+        <v>711354</v>
+      </c>
+      <c r="C4905" t="n">
+        <v>703676</v>
+      </c>
+      <c r="D4905" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4905" t="n">
+        <v>703676</v>
+      </c>
+    </row>
+    <row r="4906">
+      <c r="A4906" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B4906" t="n">
+        <v>703676</v>
+      </c>
+      <c r="C4906" t="n">
+        <v>725325</v>
+      </c>
+      <c r="D4906" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4906" t="n">
+        <v>725325</v>
+      </c>
+    </row>
+    <row r="4907">
+      <c r="A4907" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B4907" t="n">
+        <v>725325</v>
+      </c>
+      <c r="C4907" t="n">
+        <v>861216</v>
+      </c>
+      <c r="D4907" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4907" t="n">
+        <v>861216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4907"/>
+  <dimension ref="A1:E4920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75554,6 +75554,227 @@
         <v>861216</v>
       </c>
     </row>
+    <row r="4908">
+      <c r="A4908" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B4908" t="n">
+        <v>725325</v>
+      </c>
+      <c r="C4908" t="n">
+        <v>861216</v>
+      </c>
+      <c r="D4908" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4908" t="n">
+        <v>861216</v>
+      </c>
+    </row>
+    <row r="4909">
+      <c r="A4909" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B4909" t="n">
+        <v>861216</v>
+      </c>
+      <c r="C4909" t="n">
+        <v>830681</v>
+      </c>
+      <c r="D4909" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4909" t="n">
+        <v>830681</v>
+      </c>
+    </row>
+    <row r="4910">
+      <c r="A4910" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B4910" t="n">
+        <v>830681</v>
+      </c>
+      <c r="C4910" t="n">
+        <v>803975</v>
+      </c>
+      <c r="D4910" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4910" t="n">
+        <v>803975</v>
+      </c>
+    </row>
+    <row r="4911">
+      <c r="A4911" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B4911" t="n">
+        <v>803975</v>
+      </c>
+      <c r="C4911" t="n">
+        <v>787982</v>
+      </c>
+      <c r="D4911" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4911" t="n">
+        <v>787982</v>
+      </c>
+    </row>
+    <row r="4912">
+      <c r="A4912" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B4912" t="n">
+        <v>787982</v>
+      </c>
+      <c r="C4912" t="n">
+        <v>767489</v>
+      </c>
+      <c r="D4912" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4912" t="n">
+        <v>767489</v>
+      </c>
+    </row>
+    <row r="4913">
+      <c r="A4913" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B4913" t="n">
+        <v>767489</v>
+      </c>
+      <c r="C4913" t="n">
+        <v>792864</v>
+      </c>
+      <c r="D4913" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4913" t="n">
+        <v>792864</v>
+      </c>
+    </row>
+    <row r="4914">
+      <c r="A4914" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B4914" t="n">
+        <v>792864</v>
+      </c>
+      <c r="C4914" t="n">
+        <v>735039</v>
+      </c>
+      <c r="D4914" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4914" t="n">
+        <v>735039</v>
+      </c>
+    </row>
+    <row r="4915">
+      <c r="A4915" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B4915" t="n">
+        <v>735039</v>
+      </c>
+      <c r="C4915" t="n">
+        <v>688699</v>
+      </c>
+      <c r="D4915" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4915" t="n">
+        <v>688699</v>
+      </c>
+    </row>
+    <row r="4916">
+      <c r="A4916" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B4916" t="n">
+        <v>735039</v>
+      </c>
+      <c r="C4916" t="n">
+        <v>688699</v>
+      </c>
+      <c r="D4916" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4916" t="n">
+        <v>688699</v>
+      </c>
+    </row>
+    <row r="4917">
+      <c r="A4917" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B4917" t="n">
+        <v>688699</v>
+      </c>
+      <c r="C4917" t="n">
+        <v>720401</v>
+      </c>
+      <c r="D4917" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4917" t="n">
+        <v>720401</v>
+      </c>
+    </row>
+    <row r="4918">
+      <c r="A4918" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B4918" t="n">
+        <v>720401</v>
+      </c>
+      <c r="C4918" t="n">
+        <v>745427</v>
+      </c>
+      <c r="D4918" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4918" t="n">
+        <v>745427</v>
+      </c>
+    </row>
+    <row r="4919">
+      <c r="A4919" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B4919" t="n">
+        <v>745427</v>
+      </c>
+      <c r="C4919" t="n">
+        <v>721892</v>
+      </c>
+      <c r="D4919" t="n">
+        <v>756878</v>
+      </c>
+      <c r="E4919" t="n">
+        <v>721892</v>
+      </c>
+    </row>
+    <row r="4920">
+      <c r="A4920" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B4920" t="n">
+        <v>721892</v>
+      </c>
+      <c r="C4920" t="n">
+        <v>677045</v>
+      </c>
+      <c r="D4920" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4920" t="n">
+        <v>677045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4920"/>
+  <dimension ref="A1:E4984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75775,6 +75775,1094 @@
         <v>677045</v>
       </c>
     </row>
+    <row r="4921">
+      <c r="A4921" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B4921" t="n">
+        <v>721892</v>
+      </c>
+      <c r="C4921" t="n">
+        <v>677045</v>
+      </c>
+      <c r="D4921" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4921" t="n">
+        <v>677045</v>
+      </c>
+    </row>
+    <row r="4922">
+      <c r="A4922" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B4922" t="n">
+        <v>677045</v>
+      </c>
+      <c r="C4922" t="n">
+        <v>650277</v>
+      </c>
+      <c r="D4922" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4922" t="n">
+        <v>650277</v>
+      </c>
+    </row>
+    <row r="4923">
+      <c r="A4923" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B4923" t="n">
+        <v>650277</v>
+      </c>
+      <c r="C4923" t="n">
+        <v>668557</v>
+      </c>
+      <c r="D4923" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4923" t="n">
+        <v>668557</v>
+      </c>
+    </row>
+    <row r="4924">
+      <c r="A4924" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B4924" t="n">
+        <v>668557</v>
+      </c>
+      <c r="C4924" t="n">
+        <v>651488</v>
+      </c>
+      <c r="D4924" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4924" t="n">
+        <v>651488</v>
+      </c>
+    </row>
+    <row r="4925">
+      <c r="A4925" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B4925" t="n">
+        <v>651488</v>
+      </c>
+      <c r="C4925" t="n">
+        <v>620531</v>
+      </c>
+      <c r="D4925" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4925" t="n">
+        <v>620531</v>
+      </c>
+    </row>
+    <row r="4926">
+      <c r="A4926" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B4926" t="n">
+        <v>620531</v>
+      </c>
+      <c r="C4926" t="n">
+        <v>623729</v>
+      </c>
+      <c r="D4926" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4926" t="n">
+        <v>623729</v>
+      </c>
+    </row>
+    <row r="4927">
+      <c r="A4927" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B4927" t="n">
+        <v>623729</v>
+      </c>
+      <c r="C4927" t="n">
+        <v>631584</v>
+      </c>
+      <c r="D4927" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4927" t="n">
+        <v>631584</v>
+      </c>
+    </row>
+    <row r="4928">
+      <c r="A4928" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B4928" t="n">
+        <v>631584</v>
+      </c>
+      <c r="C4928" t="n">
+        <v>647354</v>
+      </c>
+      <c r="D4928" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4928" t="n">
+        <v>647354</v>
+      </c>
+    </row>
+    <row r="4929">
+      <c r="A4929" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B4929" t="n">
+        <v>647354</v>
+      </c>
+      <c r="C4929" t="n">
+        <v>671551</v>
+      </c>
+      <c r="D4929" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4929" t="n">
+        <v>671551</v>
+      </c>
+    </row>
+    <row r="4930">
+      <c r="A4930" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B4930" t="n">
+        <v>671551</v>
+      </c>
+      <c r="C4930" t="n">
+        <v>651187</v>
+      </c>
+      <c r="D4930" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4930" t="n">
+        <v>651187</v>
+      </c>
+    </row>
+    <row r="4931">
+      <c r="A4931" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B4931" t="n">
+        <v>651187</v>
+      </c>
+      <c r="C4931" t="n">
+        <v>677188</v>
+      </c>
+      <c r="D4931" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4931" t="n">
+        <v>677188</v>
+      </c>
+    </row>
+    <row r="4932">
+      <c r="A4932" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B4932" t="n">
+        <v>677188</v>
+      </c>
+      <c r="C4932" t="n">
+        <v>673357</v>
+      </c>
+      <c r="D4932" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4932" t="n">
+        <v>673357</v>
+      </c>
+    </row>
+    <row r="4933">
+      <c r="A4933" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B4933" t="n">
+        <v>673357</v>
+      </c>
+      <c r="C4933" t="n">
+        <v>704874</v>
+      </c>
+      <c r="D4933" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4933" t="n">
+        <v>704874</v>
+      </c>
+    </row>
+    <row r="4934">
+      <c r="A4934" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B4934" t="n">
+        <v>704874</v>
+      </c>
+      <c r="C4934" t="n">
+        <v>665485</v>
+      </c>
+      <c r="D4934" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4934" t="n">
+        <v>665485</v>
+      </c>
+    </row>
+    <row r="4935">
+      <c r="A4935" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B4935" t="n">
+        <v>665485</v>
+      </c>
+      <c r="C4935" t="n">
+        <v>760043</v>
+      </c>
+      <c r="D4935" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4935" t="n">
+        <v>760043</v>
+      </c>
+    </row>
+    <row r="4936">
+      <c r="A4936" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B4936" t="n">
+        <v>760043</v>
+      </c>
+      <c r="C4936" t="n">
+        <v>768984</v>
+      </c>
+      <c r="D4936" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4936" t="n">
+        <v>768984</v>
+      </c>
+    </row>
+    <row r="4937">
+      <c r="A4937" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B4937" t="n">
+        <v>768984</v>
+      </c>
+      <c r="C4937" t="n">
+        <v>797458</v>
+      </c>
+      <c r="D4937" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4937" t="n">
+        <v>797458</v>
+      </c>
+    </row>
+    <row r="4938">
+      <c r="A4938" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B4938" t="n">
+        <v>797458</v>
+      </c>
+      <c r="C4938" t="n">
+        <v>813442</v>
+      </c>
+      <c r="D4938" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4938" t="n">
+        <v>813442</v>
+      </c>
+    </row>
+    <row r="4939">
+      <c r="A4939" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B4939" t="n">
+        <v>813442</v>
+      </c>
+      <c r="C4939" t="n">
+        <v>811549</v>
+      </c>
+      <c r="D4939" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4939" t="n">
+        <v>811549</v>
+      </c>
+    </row>
+    <row r="4940">
+      <c r="A4940" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B4940" t="n">
+        <v>811549</v>
+      </c>
+      <c r="C4940" t="n">
+        <v>825951</v>
+      </c>
+      <c r="D4940" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4940" t="n">
+        <v>825951</v>
+      </c>
+    </row>
+    <row r="4941">
+      <c r="A4941" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B4941" t="n">
+        <v>825951</v>
+      </c>
+      <c r="C4941" t="n">
+        <v>793025</v>
+      </c>
+      <c r="D4941" t="n">
+        <v>721892</v>
+      </c>
+      <c r="E4941" t="n">
+        <v>793025</v>
+      </c>
+    </row>
+    <row r="4942">
+      <c r="A4942" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B4942" t="n">
+        <v>793025</v>
+      </c>
+      <c r="C4942" t="n">
+        <v>800006</v>
+      </c>
+      <c r="D4942" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4942" t="n">
+        <v>800006</v>
+      </c>
+    </row>
+    <row r="4943">
+      <c r="A4943" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B4943" t="n">
+        <v>800006</v>
+      </c>
+      <c r="C4943" t="n">
+        <v>816166</v>
+      </c>
+      <c r="D4943" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4943" t="n">
+        <v>816166</v>
+      </c>
+    </row>
+    <row r="4944">
+      <c r="A4944" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B4944" t="n">
+        <v>816166</v>
+      </c>
+      <c r="C4944" t="n">
+        <v>817953</v>
+      </c>
+      <c r="D4944" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4944" t="n">
+        <v>817953</v>
+      </c>
+    </row>
+    <row r="4945">
+      <c r="A4945" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B4945" t="n">
+        <v>817953</v>
+      </c>
+      <c r="C4945" t="n">
+        <v>830323</v>
+      </c>
+      <c r="D4945" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4945" t="n">
+        <v>830323</v>
+      </c>
+    </row>
+    <row r="4946">
+      <c r="A4946" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B4946" t="n">
+        <v>830323</v>
+      </c>
+      <c r="C4946" t="n">
+        <v>825751</v>
+      </c>
+      <c r="D4946" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4946" t="n">
+        <v>825751</v>
+      </c>
+    </row>
+    <row r="4947">
+      <c r="A4947" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B4947" t="n">
+        <v>825751</v>
+      </c>
+      <c r="C4947" t="n">
+        <v>837805</v>
+      </c>
+      <c r="D4947" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4947" t="n">
+        <v>837805</v>
+      </c>
+    </row>
+    <row r="4948">
+      <c r="A4948" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B4948" t="n">
+        <v>837805</v>
+      </c>
+      <c r="C4948" t="n">
+        <v>842182</v>
+      </c>
+      <c r="D4948" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4948" t="n">
+        <v>842182</v>
+      </c>
+    </row>
+    <row r="4949">
+      <c r="A4949" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B4949" t="n">
+        <v>842182</v>
+      </c>
+      <c r="C4949" t="n">
+        <v>809154</v>
+      </c>
+      <c r="D4949" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4949" t="n">
+        <v>809154</v>
+      </c>
+    </row>
+    <row r="4950">
+      <c r="A4950" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B4950" t="n">
+        <v>809154</v>
+      </c>
+      <c r="C4950" t="n">
+        <v>809338</v>
+      </c>
+      <c r="D4950" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4950" t="n">
+        <v>809338</v>
+      </c>
+    </row>
+    <row r="4951">
+      <c r="A4951" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B4951" t="n">
+        <v>809338</v>
+      </c>
+      <c r="C4951" t="n">
+        <v>802084</v>
+      </c>
+      <c r="D4951" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4951" t="n">
+        <v>802084</v>
+      </c>
+    </row>
+    <row r="4952">
+      <c r="A4952" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B4952" t="n">
+        <v>802084</v>
+      </c>
+      <c r="C4952" t="n">
+        <v>773826</v>
+      </c>
+      <c r="D4952" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4952" t="n">
+        <v>773826</v>
+      </c>
+    </row>
+    <row r="4953">
+      <c r="A4953" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B4953" t="n">
+        <v>773826</v>
+      </c>
+      <c r="C4953" t="n">
+        <v>738938</v>
+      </c>
+      <c r="D4953" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4953" t="n">
+        <v>738938</v>
+      </c>
+    </row>
+    <row r="4954">
+      <c r="A4954" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B4954" t="n">
+        <v>738938</v>
+      </c>
+      <c r="C4954" t="n">
+        <v>727881</v>
+      </c>
+      <c r="D4954" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4954" t="n">
+        <v>727881</v>
+      </c>
+    </row>
+    <row r="4955">
+      <c r="A4955" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B4955" t="n">
+        <v>727881</v>
+      </c>
+      <c r="C4955" t="n">
+        <v>713642</v>
+      </c>
+      <c r="D4955" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4955" t="n">
+        <v>713642</v>
+      </c>
+    </row>
+    <row r="4956">
+      <c r="A4956" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B4956" t="n">
+        <v>713642</v>
+      </c>
+      <c r="C4956" t="n">
+        <v>707057</v>
+      </c>
+      <c r="D4956" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4956" t="n">
+        <v>707057</v>
+      </c>
+    </row>
+    <row r="4957">
+      <c r="A4957" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B4957" t="n">
+        <v>707057</v>
+      </c>
+      <c r="C4957" t="n">
+        <v>623711</v>
+      </c>
+      <c r="D4957" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4957" t="n">
+        <v>623711</v>
+      </c>
+    </row>
+    <row r="4958">
+      <c r="A4958" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B4958" t="n">
+        <v>623711</v>
+      </c>
+      <c r="C4958" t="n">
+        <v>568550</v>
+      </c>
+      <c r="D4958" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4958" t="n">
+        <v>568550</v>
+      </c>
+    </row>
+    <row r="4959">
+      <c r="A4959" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B4959" t="n">
+        <v>568550</v>
+      </c>
+      <c r="C4959" t="n">
+        <v>537294</v>
+      </c>
+      <c r="D4959" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4959" t="n">
+        <v>537294</v>
+      </c>
+    </row>
+    <row r="4960">
+      <c r="A4960" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B4960" t="n">
+        <v>537294</v>
+      </c>
+      <c r="C4960" t="n">
+        <v>559582</v>
+      </c>
+      <c r="D4960" t="n">
+        <v>793025</v>
+      </c>
+      <c r="E4960" t="n">
+        <v>559582</v>
+      </c>
+    </row>
+    <row r="4961">
+      <c r="A4961" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B4961" t="n">
+        <v>559582</v>
+      </c>
+      <c r="C4961" t="n">
+        <v>566710</v>
+      </c>
+      <c r="D4961" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4961" t="n">
+        <v>566710</v>
+      </c>
+    </row>
+    <row r="4962">
+      <c r="A4962" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B4962" t="n">
+        <v>566710</v>
+      </c>
+      <c r="C4962" t="n">
+        <v>532751</v>
+      </c>
+      <c r="D4962" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4962" t="n">
+        <v>532751</v>
+      </c>
+    </row>
+    <row r="4963">
+      <c r="A4963" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B4963" t="n">
+        <v>532751</v>
+      </c>
+      <c r="C4963" t="n">
+        <v>522818</v>
+      </c>
+      <c r="D4963" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4963" t="n">
+        <v>522818</v>
+      </c>
+    </row>
+    <row r="4964">
+      <c r="A4964" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B4964" t="n">
+        <v>522818</v>
+      </c>
+      <c r="C4964" t="n">
+        <v>529488</v>
+      </c>
+      <c r="D4964" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4964" t="n">
+        <v>529488</v>
+      </c>
+    </row>
+    <row r="4965">
+      <c r="A4965" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B4965" t="n">
+        <v>529488</v>
+      </c>
+      <c r="C4965" t="n">
+        <v>521461</v>
+      </c>
+      <c r="D4965" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4965" t="n">
+        <v>521461</v>
+      </c>
+    </row>
+    <row r="4966">
+      <c r="A4966" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B4966" t="n">
+        <v>521461</v>
+      </c>
+      <c r="C4966" t="n">
+        <v>542588</v>
+      </c>
+      <c r="D4966" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4966" t="n">
+        <v>542588</v>
+      </c>
+    </row>
+    <row r="4967">
+      <c r="A4967" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B4967" t="n">
+        <v>542588</v>
+      </c>
+      <c r="C4967" t="n">
+        <v>500897</v>
+      </c>
+      <c r="D4967" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4967" t="n">
+        <v>500897</v>
+      </c>
+    </row>
+    <row r="4968">
+      <c r="A4968" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B4968" t="n">
+        <v>500897</v>
+      </c>
+      <c r="C4968" t="n">
+        <v>450713</v>
+      </c>
+      <c r="D4968" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4968" t="n">
+        <v>450713</v>
+      </c>
+    </row>
+    <row r="4969">
+      <c r="A4969" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B4969" t="n">
+        <v>450713</v>
+      </c>
+      <c r="C4969" t="n">
+        <v>412423</v>
+      </c>
+      <c r="D4969" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4969" t="n">
+        <v>412423</v>
+      </c>
+    </row>
+    <row r="4970">
+      <c r="A4970" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B4970" t="n">
+        <v>412423</v>
+      </c>
+      <c r="C4970" t="n">
+        <v>414141</v>
+      </c>
+      <c r="D4970" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4970" t="n">
+        <v>414141</v>
+      </c>
+    </row>
+    <row r="4971">
+      <c r="A4971" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B4971" t="n">
+        <v>414141</v>
+      </c>
+      <c r="C4971" t="n">
+        <v>530752</v>
+      </c>
+      <c r="D4971" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4971" t="n">
+        <v>530752</v>
+      </c>
+    </row>
+    <row r="4972">
+      <c r="A4972" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B4972" t="n">
+        <v>530752</v>
+      </c>
+      <c r="C4972" t="n">
+        <v>450153</v>
+      </c>
+      <c r="D4972" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4972" t="n">
+        <v>450153</v>
+      </c>
+    </row>
+    <row r="4973">
+      <c r="A4973" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B4973" t="n">
+        <v>450153</v>
+      </c>
+      <c r="C4973" t="n">
+        <v>415799</v>
+      </c>
+      <c r="D4973" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4973" t="n">
+        <v>415799</v>
+      </c>
+    </row>
+    <row r="4974">
+      <c r="A4974" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B4974" t="n">
+        <v>415799</v>
+      </c>
+      <c r="C4974" t="n">
+        <v>383246</v>
+      </c>
+      <c r="D4974" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4974" t="n">
+        <v>383246</v>
+      </c>
+    </row>
+    <row r="4975">
+      <c r="A4975" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B4975" t="n">
+        <v>383246</v>
+      </c>
+      <c r="C4975" t="n">
+        <v>361945</v>
+      </c>
+      <c r="D4975" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4975" t="n">
+        <v>361945</v>
+      </c>
+    </row>
+    <row r="4976">
+      <c r="A4976" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B4976" t="n">
+        <v>361945</v>
+      </c>
+      <c r="C4976" t="n">
+        <v>385686</v>
+      </c>
+      <c r="D4976" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4976" t="n">
+        <v>385686</v>
+      </c>
+    </row>
+    <row r="4977">
+      <c r="A4977" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B4977" t="n">
+        <v>385686</v>
+      </c>
+      <c r="C4977" t="n">
+        <v>350498</v>
+      </c>
+      <c r="D4977" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4977" t="n">
+        <v>350498</v>
+      </c>
+    </row>
+    <row r="4978">
+      <c r="A4978" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B4978" t="n">
+        <v>350498</v>
+      </c>
+      <c r="C4978" t="n">
+        <v>315970</v>
+      </c>
+      <c r="D4978" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4978" t="n">
+        <v>315970</v>
+      </c>
+    </row>
+    <row r="4979">
+      <c r="A4979" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B4979" t="n">
+        <v>315970</v>
+      </c>
+      <c r="C4979" t="n">
+        <v>280650</v>
+      </c>
+      <c r="D4979" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4979" t="n">
+        <v>280650</v>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B4980" t="n">
+        <v>280650</v>
+      </c>
+      <c r="C4980" t="n">
+        <v>301789</v>
+      </c>
+      <c r="D4980" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4980" t="n">
+        <v>301789</v>
+      </c>
+    </row>
+    <row r="4981">
+      <c r="A4981" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B4981" t="n">
+        <v>301789</v>
+      </c>
+      <c r="C4981" t="n">
+        <v>405786</v>
+      </c>
+      <c r="D4981" t="n">
+        <v>559582</v>
+      </c>
+      <c r="E4981" t="n">
+        <v>405786</v>
+      </c>
+    </row>
+    <row r="4982">
+      <c r="A4982" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B4982" t="n">
+        <v>405786</v>
+      </c>
+      <c r="C4982" t="n">
+        <v>299858</v>
+      </c>
+      <c r="D4982" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4982" t="n">
+        <v>299858</v>
+      </c>
+    </row>
+    <row r="4983">
+      <c r="A4983" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B4983" t="n">
+        <v>299858</v>
+      </c>
+      <c r="C4983" t="n">
+        <v>301624</v>
+      </c>
+      <c r="D4983" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4983" t="n">
+        <v>301624</v>
+      </c>
+    </row>
+    <row r="4984">
+      <c r="A4984" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B4984" t="n">
+        <v>301624</v>
+      </c>
+      <c r="C4984" t="n">
+        <v>296360</v>
+      </c>
+      <c r="D4984" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4984" t="n">
+        <v>296360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4984"/>
+  <dimension ref="A1:E5007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76863,6 +76863,397 @@
         <v>296360</v>
       </c>
     </row>
+    <row r="4985">
+      <c r="A4985" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B4985" t="n">
+        <v>301624</v>
+      </c>
+      <c r="C4985" t="n">
+        <v>296360</v>
+      </c>
+      <c r="D4985" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4985" t="n">
+        <v>296360</v>
+      </c>
+    </row>
+    <row r="4986">
+      <c r="A4986" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B4986" t="n">
+        <v>296360</v>
+      </c>
+      <c r="C4986" t="n">
+        <v>291391</v>
+      </c>
+      <c r="D4986" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4986" t="n">
+        <v>291391</v>
+      </c>
+    </row>
+    <row r="4987">
+      <c r="A4987" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B4987" t="n">
+        <v>291391</v>
+      </c>
+      <c r="C4987" t="n">
+        <v>309989</v>
+      </c>
+      <c r="D4987" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4987" t="n">
+        <v>309989</v>
+      </c>
+    </row>
+    <row r="4988">
+      <c r="A4988" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B4988" t="n">
+        <v>309989</v>
+      </c>
+      <c r="C4988" t="n">
+        <v>346635</v>
+      </c>
+      <c r="D4988" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4988" t="n">
+        <v>346635</v>
+      </c>
+    </row>
+    <row r="4989">
+      <c r="A4989" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B4989" t="n">
+        <v>346635</v>
+      </c>
+      <c r="C4989" t="n">
+        <v>315189</v>
+      </c>
+      <c r="D4989" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4989" t="n">
+        <v>315189</v>
+      </c>
+    </row>
+    <row r="4990">
+      <c r="A4990" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B4990" t="n">
+        <v>315189</v>
+      </c>
+      <c r="C4990" t="n">
+        <v>314467</v>
+      </c>
+      <c r="D4990" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4990" t="n">
+        <v>314467</v>
+      </c>
+    </row>
+    <row r="4991">
+      <c r="A4991" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B4991" t="n">
+        <v>314467</v>
+      </c>
+      <c r="C4991" t="n">
+        <v>330503</v>
+      </c>
+      <c r="D4991" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4991" t="n">
+        <v>330503</v>
+      </c>
+    </row>
+    <row r="4992">
+      <c r="A4992" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B4992" t="n">
+        <v>330503</v>
+      </c>
+      <c r="C4992" t="n">
+        <v>415670</v>
+      </c>
+      <c r="D4992" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4992" t="n">
+        <v>415670</v>
+      </c>
+    </row>
+    <row r="4993">
+      <c r="A4993" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B4993" t="n">
+        <v>415670</v>
+      </c>
+      <c r="C4993" t="n">
+        <v>600455</v>
+      </c>
+      <c r="D4993" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4993" t="n">
+        <v>600455</v>
+      </c>
+    </row>
+    <row r="4994">
+      <c r="A4994" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B4994" t="n">
+        <v>600455</v>
+      </c>
+      <c r="C4994" t="n">
+        <v>638783</v>
+      </c>
+      <c r="D4994" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4994" t="n">
+        <v>638783</v>
+      </c>
+    </row>
+    <row r="4995">
+      <c r="A4995" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B4995" t="n">
+        <v>638783</v>
+      </c>
+      <c r="C4995" t="n">
+        <v>599993</v>
+      </c>
+      <c r="D4995" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4995" t="n">
+        <v>599993</v>
+      </c>
+    </row>
+    <row r="4996">
+      <c r="A4996" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B4996" t="n">
+        <v>599993</v>
+      </c>
+      <c r="C4996" t="n">
+        <v>612381</v>
+      </c>
+      <c r="D4996" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4996" t="n">
+        <v>612381</v>
+      </c>
+    </row>
+    <row r="4997">
+      <c r="A4997" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B4997" t="n">
+        <v>612381</v>
+      </c>
+      <c r="C4997" t="n">
+        <v>626444</v>
+      </c>
+      <c r="D4997" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4997" t="n">
+        <v>626444</v>
+      </c>
+    </row>
+    <row r="4998">
+      <c r="A4998" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B4998" t="n">
+        <v>626444</v>
+      </c>
+      <c r="C4998" t="n">
+        <v>606684</v>
+      </c>
+      <c r="D4998" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4998" t="n">
+        <v>606684</v>
+      </c>
+    </row>
+    <row r="4999">
+      <c r="A4999" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B4999" t="n">
+        <v>606684</v>
+      </c>
+      <c r="C4999" t="n">
+        <v>576159</v>
+      </c>
+      <c r="D4999" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E4999" t="n">
+        <v>576159</v>
+      </c>
+    </row>
+    <row r="5000">
+      <c r="A5000" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B5000" t="n">
+        <v>576159</v>
+      </c>
+      <c r="C5000" t="n">
+        <v>562759</v>
+      </c>
+      <c r="D5000" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E5000" t="n">
+        <v>562759</v>
+      </c>
+    </row>
+    <row r="5001">
+      <c r="A5001" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B5001" t="n">
+        <v>562759</v>
+      </c>
+      <c r="C5001" t="n">
+        <v>571691</v>
+      </c>
+      <c r="D5001" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E5001" t="n">
+        <v>571691</v>
+      </c>
+    </row>
+    <row r="5002">
+      <c r="A5002" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B5002" t="n">
+        <v>571691</v>
+      </c>
+      <c r="C5002" t="n">
+        <v>597998</v>
+      </c>
+      <c r="D5002" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E5002" t="n">
+        <v>597998</v>
+      </c>
+    </row>
+    <row r="5003">
+      <c r="A5003" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B5003" t="n">
+        <v>597998</v>
+      </c>
+      <c r="C5003" t="n">
+        <v>616705</v>
+      </c>
+      <c r="D5003" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E5003" t="n">
+        <v>616705</v>
+      </c>
+    </row>
+    <row r="5004">
+      <c r="A5004" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B5004" t="n">
+        <v>616705</v>
+      </c>
+      <c r="C5004" t="n">
+        <v>677657</v>
+      </c>
+      <c r="D5004" t="n">
+        <v>405786</v>
+      </c>
+      <c r="E5004" t="n">
+        <v>677657</v>
+      </c>
+    </row>
+    <row r="5005">
+      <c r="A5005" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B5005" t="n">
+        <v>677657</v>
+      </c>
+      <c r="C5005" t="n">
+        <v>593088</v>
+      </c>
+      <c r="D5005" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5005" t="n">
+        <v>593088</v>
+      </c>
+    </row>
+    <row r="5006">
+      <c r="A5006" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B5006" t="n">
+        <v>593088</v>
+      </c>
+      <c r="C5006" t="n">
+        <v>574345</v>
+      </c>
+      <c r="D5006" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5006" t="n">
+        <v>574345</v>
+      </c>
+    </row>
+    <row r="5007">
+      <c r="A5007" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B5007" t="n">
+        <v>574345</v>
+      </c>
+      <c r="C5007" t="n">
+        <v>590351</v>
+      </c>
+      <c r="D5007" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5007" t="n">
+        <v>590351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/TreasuryData/TGA_Since2005.xlsx
+++ b/User_Data/TreasuryData/TGA_Since2005.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5007"/>
+  <dimension ref="A1:E5117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77254,6 +77254,1876 @@
         <v>590351</v>
       </c>
     </row>
+    <row r="5008">
+      <c r="A5008" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B5008" t="n">
+        <v>574345</v>
+      </c>
+      <c r="C5008" t="n">
+        <v>590351</v>
+      </c>
+      <c r="D5008" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5008" t="n">
+        <v>590351</v>
+      </c>
+    </row>
+    <row r="5009">
+      <c r="A5009" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B5009" t="n">
+        <v>590351</v>
+      </c>
+      <c r="C5009" t="n">
+        <v>583753</v>
+      </c>
+      <c r="D5009" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5009" t="n">
+        <v>583753</v>
+      </c>
+    </row>
+    <row r="5010">
+      <c r="A5010" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B5010" t="n">
+        <v>583753</v>
+      </c>
+      <c r="C5010" t="n">
+        <v>595860</v>
+      </c>
+      <c r="D5010" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5010" t="n">
+        <v>595860</v>
+      </c>
+    </row>
+    <row r="5011">
+      <c r="A5011" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B5011" t="n">
+        <v>595860</v>
+      </c>
+      <c r="C5011" t="n">
+        <v>576228</v>
+      </c>
+      <c r="D5011" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5011" t="n">
+        <v>576228</v>
+      </c>
+    </row>
+    <row r="5012">
+      <c r="A5012" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B5012" t="n">
+        <v>576228</v>
+      </c>
+      <c r="C5012" t="n">
+        <v>572746</v>
+      </c>
+      <c r="D5012" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5012" t="n">
+        <v>572746</v>
+      </c>
+    </row>
+    <row r="5013">
+      <c r="A5013" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B5013" t="n">
+        <v>572746</v>
+      </c>
+      <c r="C5013" t="n">
+        <v>583369</v>
+      </c>
+      <c r="D5013" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5013" t="n">
+        <v>583369</v>
+      </c>
+    </row>
+    <row r="5014">
+      <c r="A5014" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B5014" t="n">
+        <v>583369</v>
+      </c>
+      <c r="C5014" t="n">
+        <v>590652</v>
+      </c>
+      <c r="D5014" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5014" t="n">
+        <v>590652</v>
+      </c>
+    </row>
+    <row r="5015">
+      <c r="A5015" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B5015" t="n">
+        <v>590652</v>
+      </c>
+      <c r="C5015" t="n">
+        <v>562433</v>
+      </c>
+      <c r="D5015" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5015" t="n">
+        <v>562433</v>
+      </c>
+    </row>
+    <row r="5016">
+      <c r="A5016" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B5016" t="n">
+        <v>562433</v>
+      </c>
+      <c r="C5016" t="n">
+        <v>496649</v>
+      </c>
+      <c r="D5016" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5016" t="n">
+        <v>496649</v>
+      </c>
+    </row>
+    <row r="5017">
+      <c r="A5017" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B5017" t="n">
+        <v>496649</v>
+      </c>
+      <c r="C5017" t="n">
+        <v>504706</v>
+      </c>
+      <c r="D5017" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5017" t="n">
+        <v>504706</v>
+      </c>
+    </row>
+    <row r="5018">
+      <c r="A5018" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B5018" t="n">
+        <v>504706</v>
+      </c>
+      <c r="C5018" t="n">
+        <v>523207</v>
+      </c>
+      <c r="D5018" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5018" t="n">
+        <v>523207</v>
+      </c>
+    </row>
+    <row r="5019">
+      <c r="A5019" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B5019" t="n">
+        <v>523207</v>
+      </c>
+      <c r="C5019" t="n">
+        <v>511526</v>
+      </c>
+      <c r="D5019" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5019" t="n">
+        <v>511526</v>
+      </c>
+    </row>
+    <row r="5020">
+      <c r="A5020" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B5020" t="n">
+        <v>511526</v>
+      </c>
+      <c r="C5020" t="n">
+        <v>475886</v>
+      </c>
+      <c r="D5020" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5020" t="n">
+        <v>475886</v>
+      </c>
+    </row>
+    <row r="5021">
+      <c r="A5021" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B5021" t="n">
+        <v>475886</v>
+      </c>
+      <c r="C5021" t="n">
+        <v>473748</v>
+      </c>
+      <c r="D5021" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5021" t="n">
+        <v>473748</v>
+      </c>
+    </row>
+    <row r="5022">
+      <c r="A5022" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B5022" t="n">
+        <v>473748</v>
+      </c>
+      <c r="C5022" t="n">
+        <v>470643</v>
+      </c>
+      <c r="D5022" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5022" t="n">
+        <v>470643</v>
+      </c>
+    </row>
+    <row r="5023">
+      <c r="A5023" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B5023" t="n">
+        <v>470643</v>
+      </c>
+      <c r="C5023" t="n">
+        <v>477481</v>
+      </c>
+      <c r="D5023" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5023" t="n">
+        <v>477481</v>
+      </c>
+    </row>
+    <row r="5024">
+      <c r="A5024" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B5024" t="n">
+        <v>477481</v>
+      </c>
+      <c r="C5024" t="n">
+        <v>436627</v>
+      </c>
+      <c r="D5024" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5024" t="n">
+        <v>436627</v>
+      </c>
+    </row>
+    <row r="5025">
+      <c r="A5025" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B5025" t="n">
+        <v>436627</v>
+      </c>
+      <c r="C5025" t="n">
+        <v>399844</v>
+      </c>
+      <c r="D5025" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5025" t="n">
+        <v>399844</v>
+      </c>
+    </row>
+    <row r="5026">
+      <c r="A5026" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B5026" t="n">
+        <v>399844</v>
+      </c>
+      <c r="C5026" t="n">
+        <v>351443</v>
+      </c>
+      <c r="D5026" t="n">
+        <v>677657</v>
+      </c>
+      <c r="E5026" t="n">
+        <v>351443</v>
+      </c>
+    </row>
+    <row r="5027">
+      <c r="A5027" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B5027" t="n">
+        <v>351443</v>
+      </c>
+      <c r="C5027" t="n">
+        <v>439362</v>
+      </c>
+      <c r="D5027" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5027" t="n">
+        <v>439362</v>
+      </c>
+    </row>
+    <row r="5028">
+      <c r="A5028" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B5028" t="n">
+        <v>439362</v>
+      </c>
+      <c r="C5028" t="n">
+        <v>382937</v>
+      </c>
+      <c r="D5028" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5028" t="n">
+        <v>382937</v>
+      </c>
+    </row>
+    <row r="5029">
+      <c r="A5029" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B5029" t="n">
+        <v>382937</v>
+      </c>
+      <c r="C5029" t="n">
+        <v>376160</v>
+      </c>
+      <c r="D5029" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5029" t="n">
+        <v>376160</v>
+      </c>
+    </row>
+    <row r="5030">
+      <c r="A5030" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B5030" t="n">
+        <v>376160</v>
+      </c>
+      <c r="C5030" t="n">
+        <v>350843</v>
+      </c>
+      <c r="D5030" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5030" t="n">
+        <v>350843</v>
+      </c>
+    </row>
+    <row r="5031">
+      <c r="A5031" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B5031" t="n">
+        <v>350843</v>
+      </c>
+      <c r="C5031" t="n">
+        <v>344758</v>
+      </c>
+      <c r="D5031" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5031" t="n">
+        <v>344758</v>
+      </c>
+    </row>
+    <row r="5032">
+      <c r="A5032" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B5032" t="n">
+        <v>344758</v>
+      </c>
+      <c r="C5032" t="n">
+        <v>358796</v>
+      </c>
+      <c r="D5032" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5032" t="n">
+        <v>358796</v>
+      </c>
+    </row>
+    <row r="5033">
+      <c r="A5033" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B5033" t="n">
+        <v>358796</v>
+      </c>
+      <c r="C5033" t="n">
+        <v>309409</v>
+      </c>
+      <c r="D5033" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5033" t="n">
+        <v>309409</v>
+      </c>
+    </row>
+    <row r="5034">
+      <c r="A5034" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B5034" t="n">
+        <v>309409</v>
+      </c>
+      <c r="C5034" t="n">
+        <v>277025</v>
+      </c>
+      <c r="D5034" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5034" t="n">
+        <v>277025</v>
+      </c>
+    </row>
+    <row r="5035">
+      <c r="A5035" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B5035" t="n">
+        <v>277025</v>
+      </c>
+      <c r="C5035" t="n">
+        <v>260807</v>
+      </c>
+      <c r="D5035" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5035" t="n">
+        <v>260807</v>
+      </c>
+    </row>
+    <row r="5036">
+      <c r="A5036" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B5036" t="n">
+        <v>260807</v>
+      </c>
+      <c r="C5036" t="n">
+        <v>288078</v>
+      </c>
+      <c r="D5036" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5036" t="n">
+        <v>288078</v>
+      </c>
+    </row>
+    <row r="5037">
+      <c r="A5037" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B5037" t="n">
+        <v>288078</v>
+      </c>
+      <c r="C5037" t="n">
+        <v>446302</v>
+      </c>
+      <c r="D5037" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5037" t="n">
+        <v>446302</v>
+      </c>
+    </row>
+    <row r="5038">
+      <c r="A5038" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B5038" t="n">
+        <v>446302</v>
+      </c>
+      <c r="C5038" t="n">
+        <v>409139</v>
+      </c>
+      <c r="D5038" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5038" t="n">
+        <v>409139</v>
+      </c>
+    </row>
+    <row r="5039">
+      <c r="A5039" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B5039" t="n">
+        <v>409139</v>
+      </c>
+      <c r="C5039" t="n">
+        <v>383851</v>
+      </c>
+      <c r="D5039" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5039" t="n">
+        <v>383851</v>
+      </c>
+    </row>
+    <row r="5040">
+      <c r="A5040" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B5040" t="n">
+        <v>383851</v>
+      </c>
+      <c r="C5040" t="n">
+        <v>366520</v>
+      </c>
+      <c r="D5040" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5040" t="n">
+        <v>366520</v>
+      </c>
+    </row>
+    <row r="5041">
+      <c r="A5041" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B5041" t="n">
+        <v>366520</v>
+      </c>
+      <c r="C5041" t="n">
+        <v>374568</v>
+      </c>
+      <c r="D5041" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5041" t="n">
+        <v>374568</v>
+      </c>
+    </row>
+    <row r="5042">
+      <c r="A5042" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B5042" t="n">
+        <v>374568</v>
+      </c>
+      <c r="C5042" t="n">
+        <v>358071</v>
+      </c>
+      <c r="D5042" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5042" t="n">
+        <v>358071</v>
+      </c>
+    </row>
+    <row r="5043">
+      <c r="A5043" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B5043" t="n">
+        <v>358071</v>
+      </c>
+      <c r="C5043" t="n">
+        <v>334579</v>
+      </c>
+      <c r="D5043" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5043" t="n">
+        <v>334579</v>
+      </c>
+    </row>
+    <row r="5044">
+      <c r="A5044" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B5044" t="n">
+        <v>334579</v>
+      </c>
+      <c r="C5044" t="n">
+        <v>304841</v>
+      </c>
+      <c r="D5044" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5044" t="n">
+        <v>304841</v>
+      </c>
+    </row>
+    <row r="5045">
+      <c r="A5045" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B5045" t="n">
+        <v>304841</v>
+      </c>
+      <c r="C5045" t="n">
+        <v>338348</v>
+      </c>
+      <c r="D5045" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5045" t="n">
+        <v>338348</v>
+      </c>
+    </row>
+    <row r="5046">
+      <c r="A5046" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5046" t="n">
+        <v>338348</v>
+      </c>
+      <c r="C5046" t="n">
+        <v>456980</v>
+      </c>
+      <c r="D5046" t="n">
+        <v>351443</v>
+      </c>
+      <c r="E5046" t="n">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="5047">
+      <c r="A5047" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B5047" t="n">
+        <v>456980</v>
+      </c>
+      <c r="C5047" t="n">
+        <v>367512</v>
+      </c>
+      <c r="D5047" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5047" t="n">
+        <v>367512</v>
+      </c>
+    </row>
+    <row r="5048">
+      <c r="A5048" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B5048" t="n">
+        <v>367512</v>
+      </c>
+      <c r="C5048" t="n">
+        <v>372232</v>
+      </c>
+      <c r="D5048" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5048" t="n">
+        <v>372232</v>
+      </c>
+    </row>
+    <row r="5049">
+      <c r="A5049" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5049" t="n">
+        <v>372232</v>
+      </c>
+      <c r="C5049" t="n">
+        <v>313162</v>
+      </c>
+      <c r="D5049" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5049" t="n">
+        <v>313162</v>
+      </c>
+    </row>
+    <row r="5050">
+      <c r="A5050" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B5050" t="n">
+        <v>313162</v>
+      </c>
+      <c r="C5050" t="n">
+        <v>332482</v>
+      </c>
+      <c r="D5050" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5050" t="n">
+        <v>332482</v>
+      </c>
+    </row>
+    <row r="5051">
+      <c r="A5051" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5051" t="n">
+        <v>332482</v>
+      </c>
+      <c r="C5051" t="n">
+        <v>343047</v>
+      </c>
+      <c r="D5051" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5051" t="n">
+        <v>343047</v>
+      </c>
+    </row>
+    <row r="5052">
+      <c r="A5052" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5052" t="n">
+        <v>343047</v>
+      </c>
+      <c r="C5052" t="n">
+        <v>311048</v>
+      </c>
+      <c r="D5052" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5052" t="n">
+        <v>311048</v>
+      </c>
+    </row>
+    <row r="5053">
+      <c r="A5053" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5053" t="n">
+        <v>311048</v>
+      </c>
+      <c r="C5053" t="n">
+        <v>288395</v>
+      </c>
+      <c r="D5053" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5053" t="n">
+        <v>288395</v>
+      </c>
+    </row>
+    <row r="5054">
+      <c r="A5054" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5054" t="n">
+        <v>288395</v>
+      </c>
+      <c r="C5054" t="n">
+        <v>282363</v>
+      </c>
+      <c r="D5054" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5054" t="n">
+        <v>282363</v>
+      </c>
+    </row>
+    <row r="5055">
+      <c r="A5055" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B5055" t="n">
+        <v>282363</v>
+      </c>
+      <c r="C5055" t="n">
+        <v>298224</v>
+      </c>
+      <c r="D5055" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5055" t="n">
+        <v>298224</v>
+      </c>
+    </row>
+    <row r="5056">
+      <c r="A5056" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5056" t="n">
+        <v>298224</v>
+      </c>
+      <c r="C5056" t="n">
+        <v>327937</v>
+      </c>
+      <c r="D5056" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5056" t="n">
+        <v>327937</v>
+      </c>
+    </row>
+    <row r="5057">
+      <c r="A5057" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B5057" t="n">
+        <v>327937</v>
+      </c>
+      <c r="C5057" t="n">
+        <v>312085</v>
+      </c>
+      <c r="D5057" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5057" t="n">
+        <v>312085</v>
+      </c>
+    </row>
+    <row r="5058">
+      <c r="A5058" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B5058" t="n">
+        <v>312085</v>
+      </c>
+      <c r="C5058" t="n">
+        <v>317026</v>
+      </c>
+      <c r="D5058" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5058" t="n">
+        <v>317026</v>
+      </c>
+    </row>
+    <row r="5059">
+      <c r="A5059" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B5059" t="n">
+        <v>317026</v>
+      </c>
+      <c r="C5059" t="n">
+        <v>315658</v>
+      </c>
+      <c r="D5059" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5059" t="n">
+        <v>315658</v>
+      </c>
+    </row>
+    <row r="5060">
+      <c r="A5060" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B5060" t="n">
+        <v>315658</v>
+      </c>
+      <c r="C5060" t="n">
+        <v>319359</v>
+      </c>
+      <c r="D5060" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5060" t="n">
+        <v>319359</v>
+      </c>
+    </row>
+    <row r="5061">
+      <c r="A5061" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B5061" t="n">
+        <v>319359</v>
+      </c>
+      <c r="C5061" t="n">
+        <v>345335</v>
+      </c>
+      <c r="D5061" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5061" t="n">
+        <v>345335</v>
+      </c>
+    </row>
+    <row r="5062">
+      <c r="A5062" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B5062" t="n">
+        <v>345335</v>
+      </c>
+      <c r="C5062" t="n">
+        <v>333538</v>
+      </c>
+      <c r="D5062" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5062" t="n">
+        <v>333538</v>
+      </c>
+    </row>
+    <row r="5063">
+      <c r="A5063" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B5063" t="n">
+        <v>333538</v>
+      </c>
+      <c r="C5063" t="n">
+        <v>349408</v>
+      </c>
+      <c r="D5063" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5063" t="n">
+        <v>349408</v>
+      </c>
+    </row>
+    <row r="5064">
+      <c r="A5064" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B5064" t="n">
+        <v>349408</v>
+      </c>
+      <c r="C5064" t="n">
+        <v>348098</v>
+      </c>
+      <c r="D5064" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5064" t="n">
+        <v>348098</v>
+      </c>
+    </row>
+    <row r="5065">
+      <c r="A5065" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B5065" t="n">
+        <v>348098</v>
+      </c>
+      <c r="C5065" t="n">
+        <v>362570</v>
+      </c>
+      <c r="D5065" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5065" t="n">
+        <v>362570</v>
+      </c>
+    </row>
+    <row r="5066">
+      <c r="A5066" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B5066" t="n">
+        <v>362570</v>
+      </c>
+      <c r="C5066" t="n">
+        <v>417834</v>
+      </c>
+      <c r="D5066" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5066" t="n">
+        <v>417834</v>
+      </c>
+    </row>
+    <row r="5067">
+      <c r="A5067" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B5067" t="n">
+        <v>417834</v>
+      </c>
+      <c r="C5067" t="n">
+        <v>419446</v>
+      </c>
+      <c r="D5067" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5067" t="n">
+        <v>419446</v>
+      </c>
+    </row>
+    <row r="5068">
+      <c r="A5068" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B5068" t="n">
+        <v>419446</v>
+      </c>
+      <c r="C5068" t="n">
+        <v>497596</v>
+      </c>
+      <c r="D5068" t="n">
+        <v>456980</v>
+      </c>
+      <c r="E5068" t="n">
+        <v>497596</v>
+      </c>
+    </row>
+    <row r="5069">
+      <c r="A5069" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B5069" t="n">
+        <v>497596</v>
+      </c>
+      <c r="C5069" t="n">
+        <v>377780</v>
+      </c>
+      <c r="D5069" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5069" t="n">
+        <v>377780</v>
+      </c>
+    </row>
+    <row r="5070">
+      <c r="A5070" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B5070" t="n">
+        <v>377780</v>
+      </c>
+      <c r="C5070" t="n">
+        <v>392810</v>
+      </c>
+      <c r="D5070" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5070" t="n">
+        <v>392810</v>
+      </c>
+    </row>
+    <row r="5071">
+      <c r="A5071" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B5071" t="n">
+        <v>392810</v>
+      </c>
+      <c r="C5071" t="n">
+        <v>459240</v>
+      </c>
+      <c r="D5071" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5071" t="n">
+        <v>459240</v>
+      </c>
+    </row>
+    <row r="5072">
+      <c r="A5072" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B5072" t="n">
+        <v>459240</v>
+      </c>
+      <c r="C5072" t="n">
+        <v>464315</v>
+      </c>
+      <c r="D5072" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5072" t="n">
+        <v>464315</v>
+      </c>
+    </row>
+    <row r="5073">
+      <c r="A5073" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B5073" t="n">
+        <v>464315</v>
+      </c>
+      <c r="C5073" t="n">
+        <v>491691</v>
+      </c>
+      <c r="D5073" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5073" t="n">
+        <v>491691</v>
+      </c>
+    </row>
+    <row r="5074">
+      <c r="A5074" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B5074" t="n">
+        <v>491691</v>
+      </c>
+      <c r="C5074" t="n">
+        <v>491063</v>
+      </c>
+      <c r="D5074" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5074" t="n">
+        <v>491063</v>
+      </c>
+    </row>
+    <row r="5075">
+      <c r="A5075" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B5075" t="n">
+        <v>491063</v>
+      </c>
+      <c r="C5075" t="n">
+        <v>504280</v>
+      </c>
+      <c r="D5075" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5075" t="n">
+        <v>504280</v>
+      </c>
+    </row>
+    <row r="5076">
+      <c r="A5076" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B5076" t="n">
+        <v>504280</v>
+      </c>
+      <c r="C5076" t="n">
+        <v>545499</v>
+      </c>
+      <c r="D5076" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5076" t="n">
+        <v>545499</v>
+      </c>
+    </row>
+    <row r="5077">
+      <c r="A5077" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5077" t="n">
+        <v>545499</v>
+      </c>
+      <c r="C5077" t="n">
+        <v>515469</v>
+      </c>
+      <c r="D5077" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5077" t="n">
+        <v>515469</v>
+      </c>
+    </row>
+    <row r="5078">
+      <c r="A5078" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B5078" t="n">
+        <v>515469</v>
+      </c>
+      <c r="C5078" t="n">
+        <v>549080</v>
+      </c>
+      <c r="D5078" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5078" t="n">
+        <v>549080</v>
+      </c>
+    </row>
+    <row r="5079">
+      <c r="A5079" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B5079" t="n">
+        <v>549080</v>
+      </c>
+      <c r="C5079" t="n">
+        <v>493107</v>
+      </c>
+      <c r="D5079" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5079" t="n">
+        <v>493107</v>
+      </c>
+    </row>
+    <row r="5080">
+      <c r="A5080" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B5080" t="n">
+        <v>493107</v>
+      </c>
+      <c r="C5080" t="n">
+        <v>519490</v>
+      </c>
+      <c r="D5080" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5080" t="n">
+        <v>519490</v>
+      </c>
+    </row>
+    <row r="5081">
+      <c r="A5081" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B5081" t="n">
+        <v>519490</v>
+      </c>
+      <c r="C5081" t="n">
+        <v>562784</v>
+      </c>
+      <c r="D5081" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5081" t="n">
+        <v>562784</v>
+      </c>
+    </row>
+    <row r="5082">
+      <c r="A5082" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5082" t="n">
+        <v>562784</v>
+      </c>
+      <c r="C5082" t="n">
+        <v>526063</v>
+      </c>
+      <c r="D5082" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5082" t="n">
+        <v>526063</v>
+      </c>
+    </row>
+    <row r="5083">
+      <c r="A5083" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B5083" t="n">
+        <v>526063</v>
+      </c>
+      <c r="C5083" t="n">
+        <v>561249</v>
+      </c>
+      <c r="D5083" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5083" t="n">
+        <v>561249</v>
+      </c>
+    </row>
+    <row r="5084">
+      <c r="A5084" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B5084" t="n">
+        <v>561249</v>
+      </c>
+      <c r="C5084" t="n">
+        <v>581509</v>
+      </c>
+      <c r="D5084" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5084" t="n">
+        <v>581509</v>
+      </c>
+    </row>
+    <row r="5085">
+      <c r="A5085" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B5085" t="n">
+        <v>581509</v>
+      </c>
+      <c r="C5085" t="n">
+        <v>595519</v>
+      </c>
+      <c r="D5085" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5085" t="n">
+        <v>595519</v>
+      </c>
+    </row>
+    <row r="5086">
+      <c r="A5086" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B5086" t="n">
+        <v>595519</v>
+      </c>
+      <c r="C5086" t="n">
+        <v>632894</v>
+      </c>
+      <c r="D5086" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5086" t="n">
+        <v>632894</v>
+      </c>
+    </row>
+    <row r="5087">
+      <c r="A5087" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B5087" t="n">
+        <v>632894</v>
+      </c>
+      <c r="C5087" t="n">
+        <v>595798</v>
+      </c>
+      <c r="D5087" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5087" t="n">
+        <v>595798</v>
+      </c>
+    </row>
+    <row r="5088">
+      <c r="A5088" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B5088" t="n">
+        <v>595798</v>
+      </c>
+      <c r="C5088" t="n">
+        <v>609660</v>
+      </c>
+      <c r="D5088" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5088" t="n">
+        <v>609660</v>
+      </c>
+    </row>
+    <row r="5089">
+      <c r="A5089" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B5089" t="n">
+        <v>609660</v>
+      </c>
+      <c r="C5089" t="n">
+        <v>555224</v>
+      </c>
+      <c r="D5089" t="n">
+        <v>497596</v>
+      </c>
+      <c r="E5089" t="n">
+        <v>555224</v>
+      </c>
+    </row>
+    <row r="5090">
+      <c r="A5090" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B5090" t="n">
+        <v>555224</v>
+      </c>
+      <c r="C5090" t="n">
+        <v>690094</v>
+      </c>
+      <c r="D5090" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5090" t="n">
+        <v>690094</v>
+      </c>
+    </row>
+    <row r="5091">
+      <c r="A5091" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B5091" t="n">
+        <v>690094</v>
+      </c>
+      <c r="C5091" t="n">
+        <v>661939</v>
+      </c>
+      <c r="D5091" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5091" t="n">
+        <v>661939</v>
+      </c>
+    </row>
+    <row r="5092">
+      <c r="A5092" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B5092" t="n">
+        <v>661939</v>
+      </c>
+      <c r="C5092" t="n">
+        <v>669272</v>
+      </c>
+      <c r="D5092" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5092" t="n">
+        <v>669272</v>
+      </c>
+    </row>
+    <row r="5093">
+      <c r="A5093" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B5093" t="n">
+        <v>669272</v>
+      </c>
+      <c r="C5093" t="n">
+        <v>666137</v>
+      </c>
+      <c r="D5093" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5093" t="n">
+        <v>666137</v>
+      </c>
+    </row>
+    <row r="5094">
+      <c r="A5094" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5094" t="n">
+        <v>666137</v>
+      </c>
+      <c r="C5094" t="n">
+        <v>680369</v>
+      </c>
+      <c r="D5094" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5094" t="n">
+        <v>680369</v>
+      </c>
+    </row>
+    <row r="5095">
+      <c r="A5095" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B5095" t="n">
+        <v>680369</v>
+      </c>
+      <c r="C5095" t="n">
+        <v>690281</v>
+      </c>
+      <c r="D5095" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5095" t="n">
+        <v>690281</v>
+      </c>
+    </row>
+    <row r="5096">
+      <c r="A5096" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B5096" t="n">
+        <v>690281</v>
+      </c>
+      <c r="C5096" t="n">
+        <v>667585</v>
+      </c>
+      <c r="D5096" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5096" t="n">
+        <v>667585</v>
+      </c>
+    </row>
+    <row r="5097">
+      <c r="A5097" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B5097" t="n">
+        <v>667585</v>
+      </c>
+      <c r="C5097" t="n">
+        <v>682732</v>
+      </c>
+      <c r="D5097" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5097" t="n">
+        <v>682732</v>
+      </c>
+    </row>
+    <row r="5098">
+      <c r="A5098" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B5098" t="n">
+        <v>682732</v>
+      </c>
+      <c r="C5098" t="n">
+        <v>707770</v>
+      </c>
+      <c r="D5098" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5098" t="n">
+        <v>707770</v>
+      </c>
+    </row>
+    <row r="5099">
+      <c r="A5099" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B5099" t="n">
+        <v>707770</v>
+      </c>
+      <c r="C5099" t="n">
+        <v>857709</v>
+      </c>
+      <c r="D5099" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5099" t="n">
+        <v>857709</v>
+      </c>
+    </row>
+    <row r="5100">
+      <c r="A5100" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B5100" t="n">
+        <v>857709</v>
+      </c>
+      <c r="C5100" t="n">
+        <v>823741</v>
+      </c>
+      <c r="D5100" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5100" t="n">
+        <v>823741</v>
+      </c>
+    </row>
+    <row r="5101">
+      <c r="A5101" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B5101" t="n">
+        <v>823741</v>
+      </c>
+      <c r="C5101" t="n">
+        <v>807142</v>
+      </c>
+      <c r="D5101" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5101" t="n">
+        <v>807142</v>
+      </c>
+    </row>
+    <row r="5102">
+      <c r="A5102" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B5102" t="n">
+        <v>807142</v>
+      </c>
+      <c r="C5102" t="n">
+        <v>816451</v>
+      </c>
+      <c r="D5102" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5102" t="n">
+        <v>816451</v>
+      </c>
+    </row>
+    <row r="5103">
+      <c r="A5103" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B5103" t="n">
+        <v>816451</v>
+      </c>
+      <c r="C5103" t="n">
+        <v>818530</v>
+      </c>
+      <c r="D5103" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5103" t="n">
+        <v>818530</v>
+      </c>
+    </row>
+    <row r="5104">
+      <c r="A5104" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B5104" t="n">
+        <v>818530</v>
+      </c>
+      <c r="C5104" t="n">
+        <v>822471</v>
+      </c>
+      <c r="D5104" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5104" t="n">
+        <v>822471</v>
+      </c>
+    </row>
+    <row r="5105">
+      <c r="A5105" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B5105" t="n">
+        <v>822471</v>
+      </c>
+      <c r="C5105" t="n">
+        <v>781512</v>
+      </c>
+      <c r="D5105" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5105" t="n">
+        <v>781512</v>
+      </c>
+    </row>
+    <row r="5106">
+      <c r="A5106" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B5106" t="n">
+        <v>781512</v>
+      </c>
+      <c r="C5106" t="n">
+        <v>757970</v>
+      </c>
+      <c r="D5106" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5106" t="n">
+        <v>757970</v>
+      </c>
+    </row>
+    <row r="5107">
+      <c r="A5107" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B5107" t="n">
+        <v>757970</v>
+      </c>
+      <c r="C5107" t="n">
+        <v>761087</v>
+      </c>
+      <c r="D5107" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5107" t="n">
+        <v>761087</v>
+      </c>
+    </row>
+    <row r="5108">
+      <c r="A5108" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B5108" t="n">
+        <v>761087</v>
+      </c>
+      <c r="C5108" t="n">
+        <v>786337</v>
+      </c>
+      <c r="D5108" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5108" t="n">
+        <v>786337</v>
+      </c>
+    </row>
+    <row r="5109">
+      <c r="A5109" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B5109" t="n">
+        <v>786337</v>
+      </c>
+      <c r="C5109" t="n">
+        <v>805674</v>
+      </c>
+      <c r="D5109" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5109" t="n">
+        <v>805674</v>
+      </c>
+    </row>
+    <row r="5110">
+      <c r="A5110" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B5110" t="n">
+        <v>805674</v>
+      </c>
+      <c r="C5110" t="n">
+        <v>890825</v>
+      </c>
+      <c r="D5110" t="n">
+        <v>555224</v>
+      </c>
+      <c r="E5110" t="n">
+        <v>890825</v>
+      </c>
+    </row>
+    <row r="5111">
+      <c r="A5111" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B5111" t="n">
+        <v>890825</v>
+      </c>
+      <c r="C5111" t="n">
+        <v>819378</v>
+      </c>
+      <c r="D5111" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5111" t="n">
+        <v>819378</v>
+      </c>
+    </row>
+    <row r="5112">
+      <c r="A5112" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B5112" t="n">
+        <v>819378</v>
+      </c>
+      <c r="C5112" t="n">
+        <v>823845</v>
+      </c>
+      <c r="D5112" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5112" t="n">
+        <v>823845</v>
+      </c>
+    </row>
+    <row r="5113">
+      <c r="A5113" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="B5113" t="n">
+        <v>823845</v>
+      </c>
+      <c r="C5113" t="n">
+        <v>798367</v>
+      </c>
+      <c r="D5113" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5113" t="n">
+        <v>798367</v>
+      </c>
+    </row>
+    <row r="5114">
+      <c r="A5114" s="2" t="n">
+        <v>45936</v>
+      </c>
+      <c r="B5114" t="n">
+        <v>798367</v>
+      </c>
+      <c r="C5114" t="n">
+        <v>815262</v>
+      </c>
+      <c r="D5114" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5114" t="n">
+        <v>815262</v>
+      </c>
+    </row>
+    <row r="5115">
+      <c r="A5115" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B5115" t="n">
+        <v>815262</v>
+      </c>
+      <c r="C5115" t="n">
+        <v>823736</v>
+      </c>
+      <c r="D5115" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5115" t="n">
+        <v>823736</v>
+      </c>
+    </row>
+    <row r="5116">
+      <c r="A5116" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B5116" t="n">
+        <v>823736</v>
+      </c>
+      <c r="C5116" t="n">
+        <v>794054</v>
+      </c>
+      <c r="D5116" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5116" t="n">
+        <v>794054</v>
+      </c>
+    </row>
+    <row r="5117">
+      <c r="A5117" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B5117" t="n">
+        <v>794054</v>
+      </c>
+      <c r="C5117" t="n">
+        <v>796023</v>
+      </c>
+      <c r="D5117" t="n">
+        <v>890825</v>
+      </c>
+      <c r="E5117" t="n">
+        <v>796023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
